--- a/DnaRepairSpreadsheetParser/test/exampleData/dnarepairmindataspreadsheets/NCGC-DNA repair.xlsx
+++ b/DnaRepairSpreadsheetParser/test/exampleData/dnarepairmindataspreadsheets/NCGC-DNA repair.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5722" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5721" uniqueCount="722">
   <si>
     <t>Instructions:
 Fill out from left to right.  Watch for red errors, correct them before moving on to the next column</t>
@@ -2266,7 +2266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2281,7 +2281,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2294,6 +2293,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2599,17 +2602,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BB301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I202" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane xSplit="2565" ySplit="8805" topLeftCell="A8" activePane="topRight"/>
       <selection activeCell="I301" sqref="I301"/>
-      <selection pane="topRight" activeCell="H230" sqref="H230"/>
+      <selection pane="topRight" activeCell="G2" sqref="G2"/>
       <selection pane="bottomLeft" activeCell="A301" sqref="A3:A301"/>
       <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="13" customWidth="1"/>
     <col min="2" max="7" width="20.7109375" customWidth="1"/>
     <col min="8" max="8" width="66" customWidth="1"/>
     <col min="9" max="15" width="20.7109375" customWidth="1"/>
@@ -2627,7 +2630,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="2" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2666,49 +2669,49 @@
       <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11" t="s">
+      <c r="O1" s="17"/>
+      <c r="P1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11" t="s">
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
       <c r="U1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="11"/>
+      <c r="W1" s="17"/>
       <c r="X1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="Z1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="10" t="s">
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
     </row>
     <row r="2" spans="1:54" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2726,9 +2729,7 @@
       <c r="F2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="G2" s="10"/>
       <c r="H2" s="3" t="s">
         <v>25</v>
       </c>
@@ -2872,7 +2873,7 @@
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>232</v>
       </c>
       <c r="B3" t="str">
@@ -3022,7 +3023,7 @@
       </c>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>232</v>
       </c>
       <c r="G4" t="s">
@@ -3055,7 +3056,7 @@
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>232</v>
       </c>
       <c r="G5" t="s">
@@ -3079,7 +3080,7 @@
       </c>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>232</v>
       </c>
       <c r="G6" t="s">
@@ -3107,7 +3108,7 @@
       <c r="AE6" s="4"/>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>238</v>
       </c>
       <c r="B7" t="str">
@@ -3186,7 +3187,7 @@
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>238</v>
       </c>
       <c r="D8" s="4"/>
@@ -3195,7 +3196,7 @@
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>238</v>
       </c>
       <c r="D9" s="4"/>
@@ -3204,14 +3205,14 @@
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>238</v>
       </c>
       <c r="D10" s="4"/>
       <c r="AE10" s="4"/>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>279</v>
       </c>
       <c r="B11" t="str">
@@ -3361,7 +3362,7 @@
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>279</v>
       </c>
       <c r="G12" t="s">
@@ -3394,7 +3395,7 @@
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>279</v>
       </c>
       <c r="G13" t="s">
@@ -3418,7 +3419,7 @@
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>279</v>
       </c>
       <c r="G14" t="s">
@@ -3446,7 +3447,7 @@
       <c r="AE14" s="4"/>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>287</v>
       </c>
       <c r="B15" t="str">
@@ -3596,7 +3597,7 @@
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>287</v>
       </c>
       <c r="G16" t="s">
@@ -3629,7 +3630,7 @@
       </c>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>287</v>
       </c>
       <c r="G17" t="s">
@@ -3653,7 +3654,7 @@
       </c>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>287</v>
       </c>
       <c r="G18" t="s">
@@ -3681,7 +3682,7 @@
       <c r="AE18" s="4"/>
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>296</v>
       </c>
       <c r="B19" t="str">
@@ -3807,7 +3808,7 @@
       </c>
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>296</v>
       </c>
       <c r="C20" t="s">
@@ -3833,7 +3834,7 @@
       </c>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>296</v>
       </c>
       <c r="G21" t="s">
@@ -3856,7 +3857,7 @@
       </c>
     </row>
     <row r="22" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>280</v>
       </c>
       <c r="B22" t="str">
@@ -4006,7 +4007,7 @@
       </c>
     </row>
     <row r="23" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>280</v>
       </c>
       <c r="G23" t="s">
@@ -4039,7 +4040,7 @@
       </c>
     </row>
     <row r="24" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>280</v>
       </c>
       <c r="G24" t="s">
@@ -4069,7 +4070,7 @@
       </c>
     </row>
     <row r="25" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>286</v>
       </c>
       <c r="B25" t="str">
@@ -4219,7 +4220,7 @@
       </c>
     </row>
     <row r="26" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>286</v>
       </c>
       <c r="G26" t="s">
@@ -4252,7 +4253,7 @@
       </c>
     </row>
     <row r="27" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>286</v>
       </c>
       <c r="G27" t="s">
@@ -4282,7 +4283,7 @@
       </c>
     </row>
     <row r="28" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>283</v>
       </c>
       <c r="B28" t="str">
@@ -4432,7 +4433,7 @@
       </c>
     </row>
     <row r="29" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>283</v>
       </c>
       <c r="G29" t="s">
@@ -4470,7 +4471,7 @@
       </c>
     </row>
     <row r="30" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>283</v>
       </c>
       <c r="G30" t="s">
@@ -4493,7 +4494,7 @@
       </c>
     </row>
     <row r="31" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>283</v>
       </c>
       <c r="G31" t="s">
@@ -4517,7 +4518,7 @@
       <c r="AE31" s="4"/>
     </row>
     <row r="32" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="13" t="s">
         <v>283</v>
       </c>
       <c r="G32" t="s">
@@ -4538,7 +4539,7 @@
       <c r="AE32" s="4"/>
     </row>
     <row r="33" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="13" t="s">
         <v>288</v>
       </c>
       <c r="B33" t="str">
@@ -4688,7 +4689,7 @@
       </c>
     </row>
     <row r="34" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="13" t="s">
         <v>288</v>
       </c>
       <c r="G34" t="s">
@@ -4726,7 +4727,7 @@
       </c>
     </row>
     <row r="35" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="13" t="s">
         <v>288</v>
       </c>
       <c r="G35" t="s">
@@ -4749,7 +4750,7 @@
       </c>
     </row>
     <row r="36" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="13" t="s">
         <v>288</v>
       </c>
       <c r="G36" t="s">
@@ -4773,7 +4774,7 @@
       <c r="AE36" s="4"/>
     </row>
     <row r="37" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="13" t="s">
         <v>288</v>
       </c>
       <c r="G37" t="s">
@@ -4794,7 +4795,7 @@
       <c r="AE37" s="4"/>
     </row>
     <row r="38" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="13" t="s">
         <v>276</v>
       </c>
       <c r="B38" t="str">
@@ -4944,7 +4945,7 @@
       </c>
     </row>
     <row r="39" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="13" t="s">
         <v>276</v>
       </c>
       <c r="G39" t="s">
@@ -4982,7 +4983,7 @@
       </c>
     </row>
     <row r="40" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="13" t="s">
         <v>276</v>
       </c>
       <c r="G40" t="s">
@@ -5005,7 +5006,7 @@
       </c>
     </row>
     <row r="41" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="13" t="s">
         <v>276</v>
       </c>
       <c r="G41" t="s">
@@ -5029,7 +5030,7 @@
       <c r="AE41" s="4"/>
     </row>
     <row r="42" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="13" t="s">
         <v>276</v>
       </c>
       <c r="G42" t="s">
@@ -5050,7 +5051,7 @@
       <c r="AE42" s="4"/>
     </row>
     <row r="43" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="13" t="s">
         <v>289</v>
       </c>
       <c r="B43" t="str">
@@ -5191,7 +5192,7 @@
       </c>
     </row>
     <row r="44" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="13" t="s">
         <v>289</v>
       </c>
       <c r="G44" t="s">
@@ -5223,7 +5224,7 @@
       </c>
     </row>
     <row r="45" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="13" t="s">
         <v>289</v>
       </c>
       <c r="G45" t="s">
@@ -5252,7 +5253,7 @@
       </c>
     </row>
     <row r="46" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="13" t="s">
         <v>290</v>
       </c>
       <c r="B46" t="str">
@@ -5387,7 +5388,7 @@
       </c>
     </row>
     <row r="47" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="13" t="s">
         <v>290</v>
       </c>
       <c r="G47" t="s">
@@ -5413,7 +5414,7 @@
       </c>
     </row>
     <row r="48" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="13" t="s">
         <v>290</v>
       </c>
       <c r="G48" t="s">
@@ -5442,7 +5443,7 @@
       </c>
     </row>
     <row r="49" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="13" t="s">
         <v>290</v>
       </c>
       <c r="N49" t="s">
@@ -5454,7 +5455,7 @@
       <c r="AE49" s="4"/>
     </row>
     <row r="50" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="13" t="s">
         <v>293</v>
       </c>
       <c r="B50" t="str">
@@ -5583,7 +5584,7 @@
       </c>
     </row>
     <row r="51" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="13" t="s">
         <v>293</v>
       </c>
       <c r="G51" t="s">
@@ -5606,7 +5607,7 @@
       </c>
     </row>
     <row r="52" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="13" t="s">
         <v>293</v>
       </c>
       <c r="AE52" s="4" t="s">
@@ -5614,13 +5615,13 @@
       </c>
     </row>
     <row r="53" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="13" t="s">
         <v>293</v>
       </c>
       <c r="AE53" s="4"/>
     </row>
     <row r="54" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="13" t="s">
         <v>348</v>
       </c>
       <c r="B54" t="str">
@@ -5743,7 +5744,7 @@
       </c>
     </row>
     <row r="55" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="13" t="s">
         <v>348</v>
       </c>
       <c r="D55" s="4"/>
@@ -5752,7 +5753,7 @@
       </c>
     </row>
     <row r="56" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="13" t="s">
         <v>348</v>
       </c>
       <c r="D56" s="4"/>
@@ -5761,7 +5762,7 @@
       </c>
     </row>
     <row r="57" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="13" t="s">
         <v>351</v>
       </c>
       <c r="B57" t="str">
@@ -5884,7 +5885,7 @@
       </c>
     </row>
     <row r="58" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="13" t="s">
         <v>351</v>
       </c>
       <c r="D58" s="4"/>
@@ -5902,7 +5903,7 @@
       </c>
     </row>
     <row r="59" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="13" t="s">
         <v>351</v>
       </c>
       <c r="D59" s="4"/>
@@ -5911,7 +5912,7 @@
       </c>
     </row>
     <row r="60" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="13" t="s">
         <v>345</v>
       </c>
       <c r="B60" t="str">
@@ -6028,7 +6029,7 @@
       </c>
     </row>
     <row r="61" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="13" t="s">
         <v>345</v>
       </c>
       <c r="AE61" s="4" t="s">
@@ -6036,7 +6037,7 @@
       </c>
     </row>
     <row r="62" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="13" t="s">
         <v>345</v>
       </c>
       <c r="AE62" s="4" t="s">
@@ -6044,7 +6045,7 @@
       </c>
     </row>
     <row r="63" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="13" t="s">
         <v>174</v>
       </c>
       <c r="B63" t="str">
@@ -6122,7 +6123,7 @@
       </c>
     </row>
     <row r="64" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="13" t="s">
         <v>174</v>
       </c>
       <c r="AE64" s="4" t="s">
@@ -6130,7 +6131,7 @@
       </c>
     </row>
     <row r="65" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="13" t="s">
         <v>164</v>
       </c>
       <c r="B65" t="str">
@@ -6280,7 +6281,7 @@
       </c>
     </row>
     <row r="66" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="13" t="s">
         <v>164</v>
       </c>
       <c r="D66" s="4" t="s">
@@ -6339,7 +6340,7 @@
       </c>
     </row>
     <row r="67" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="13" t="s">
         <v>164</v>
       </c>
       <c r="G67" t="s">
@@ -6369,7 +6370,7 @@
       <c r="AE67" s="4"/>
     </row>
     <row r="68" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="13" t="s">
         <v>164</v>
       </c>
       <c r="I68" s="4"/>
@@ -6380,7 +6381,7 @@
       <c r="AE68" s="4"/>
     </row>
     <row r="69" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="13" t="s">
         <v>171</v>
       </c>
       <c r="B69" t="str">
@@ -6530,7 +6531,7 @@
       </c>
     </row>
     <row r="70" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="13" t="s">
         <v>171</v>
       </c>
       <c r="D70" s="4" t="s">
@@ -6589,7 +6590,7 @@
       </c>
     </row>
     <row r="71" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="13" t="s">
         <v>171</v>
       </c>
       <c r="G71" t="s">
@@ -6619,7 +6620,7 @@
       <c r="AE71" s="4"/>
     </row>
     <row r="72" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="13" t="s">
         <v>171</v>
       </c>
       <c r="I72" s="4"/>
@@ -6630,7 +6631,7 @@
       <c r="AE72" s="4"/>
     </row>
     <row r="73" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="13" t="s">
         <v>214</v>
       </c>
       <c r="B73" t="str">
@@ -6780,7 +6781,7 @@
       </c>
     </row>
     <row r="74" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="13" t="s">
         <v>214</v>
       </c>
       <c r="D74" s="4" t="s">
@@ -6839,7 +6840,7 @@
       </c>
     </row>
     <row r="75" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="13" t="s">
         <v>214</v>
       </c>
       <c r="G75" t="s">
@@ -6869,7 +6870,7 @@
       <c r="AE75" s="4"/>
     </row>
     <row r="76" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="13" t="s">
         <v>214</v>
       </c>
       <c r="I76" s="4"/>
@@ -6880,7 +6881,7 @@
       <c r="AE76" s="4"/>
     </row>
     <row r="77" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="13" t="s">
         <v>300</v>
       </c>
       <c r="B77" t="str">
@@ -7030,7 +7031,7 @@
       </c>
     </row>
     <row r="78" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="13" t="s">
         <v>300</v>
       </c>
       <c r="D78" s="4" t="s">
@@ -7089,7 +7090,7 @@
       </c>
     </row>
     <row r="79" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="13" t="s">
         <v>300</v>
       </c>
       <c r="G79" t="s">
@@ -7119,7 +7120,7 @@
       <c r="AE79" s="4"/>
     </row>
     <row r="80" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="13" t="s">
         <v>300</v>
       </c>
       <c r="I80" s="4"/>
@@ -7130,7 +7131,7 @@
       <c r="AE80" s="4"/>
     </row>
     <row r="81" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="13" t="s">
         <v>204</v>
       </c>
       <c r="B81" t="str">
@@ -7283,7 +7284,7 @@
       </c>
     </row>
     <row r="82" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="13" t="s">
         <v>204</v>
       </c>
       <c r="D82" s="4" t="s">
@@ -7330,7 +7331,7 @@
       </c>
     </row>
     <row r="83" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="13" t="s">
         <v>204</v>
       </c>
       <c r="G83" t="s">
@@ -7356,7 +7357,7 @@
       </c>
     </row>
     <row r="84" spans="1:54" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="13" t="s">
         <v>209</v>
       </c>
       <c r="B84" t="str">
@@ -7500,7 +7501,7 @@
       </c>
     </row>
     <row r="85" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="13" t="s">
         <v>209</v>
       </c>
       <c r="D85" s="4" t="s">
@@ -7538,7 +7539,7 @@
       </c>
     </row>
     <row r="86" spans="1:54" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="13" t="s">
         <v>301</v>
       </c>
       <c r="B86" t="str">
@@ -7682,7 +7683,7 @@
       </c>
     </row>
     <row r="87" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="13" t="s">
         <v>301</v>
       </c>
       <c r="D87" s="4" t="s">
@@ -7716,7 +7717,7 @@
       </c>
     </row>
     <row r="88" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="13" t="s">
         <v>213</v>
       </c>
       <c r="B88" t="str">
@@ -7866,7 +7867,7 @@
       </c>
     </row>
     <row r="89" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="13" t="s">
         <v>213</v>
       </c>
       <c r="D89" s="4" t="s">
@@ -7925,7 +7926,7 @@
       </c>
     </row>
     <row r="90" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="13" t="s">
         <v>213</v>
       </c>
       <c r="G90" t="s">
@@ -7955,7 +7956,7 @@
       <c r="AE90" s="4"/>
     </row>
     <row r="91" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A91" s="16" t="s">
+      <c r="A91" s="15" t="s">
         <v>720</v>
       </c>
       <c r="B91" t="str">
@@ -8105,7 +8106,7 @@
       </c>
     </row>
     <row r="92" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="15" t="s">
         <v>720</v>
       </c>
       <c r="G92" t="s">
@@ -8131,7 +8132,7 @@
       </c>
     </row>
     <row r="93" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="15" t="s">
         <v>720</v>
       </c>
       <c r="G93" t="s">
@@ -8149,7 +8150,7 @@
       <c r="AE93" s="4"/>
     </row>
     <row r="94" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="13" t="s">
         <v>254</v>
       </c>
       <c r="B94" t="str">
@@ -8293,7 +8294,7 @@
       </c>
     </row>
     <row r="95" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="13" t="s">
         <v>254</v>
       </c>
       <c r="G95" t="s">
@@ -8316,7 +8317,7 @@
       </c>
     </row>
     <row r="96" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="13" t="s">
         <v>303</v>
       </c>
       <c r="B96" t="str">
@@ -8433,7 +8434,7 @@
       </c>
     </row>
     <row r="97" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="13" t="s">
         <v>303</v>
       </c>
       <c r="AE97" s="4" t="s">
@@ -8441,7 +8442,7 @@
       </c>
     </row>
     <row r="98" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="13" t="s">
         <v>306</v>
       </c>
       <c r="B98" t="str">
@@ -8567,7 +8568,7 @@
       </c>
     </row>
     <row r="99" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A99" s="14" t="s">
+      <c r="A99" s="13" t="s">
         <v>306</v>
       </c>
       <c r="Z99" s="4"/>
@@ -8576,7 +8577,7 @@
       </c>
     </row>
     <row r="100" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A100" s="14" t="s">
+      <c r="A100" s="13" t="s">
         <v>312</v>
       </c>
       <c r="B100" t="str">
@@ -8699,7 +8700,7 @@
       </c>
     </row>
     <row r="101" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A101" s="14" t="s">
+      <c r="A101" s="13" t="s">
         <v>312</v>
       </c>
       <c r="AE101" s="4" t="s">
@@ -8707,7 +8708,7 @@
       </c>
     </row>
     <row r="102" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="13" t="s">
         <v>315</v>
       </c>
       <c r="B102" t="str">
@@ -8830,7 +8831,7 @@
       </c>
     </row>
     <row r="103" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A103" s="14" t="s">
+      <c r="A103" s="13" t="s">
         <v>315</v>
       </c>
       <c r="AE103" s="4" t="s">
@@ -8838,7 +8839,7 @@
       </c>
     </row>
     <row r="104" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="13" t="s">
         <v>309</v>
       </c>
       <c r="B104" t="str">
@@ -8964,12 +8965,12 @@
       </c>
     </row>
     <row r="105" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="13" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="106" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A106" s="14" t="s">
+      <c r="A106" s="13" t="s">
         <v>141</v>
       </c>
       <c r="B106" t="str">
@@ -9119,7 +9120,7 @@
       </c>
     </row>
     <row r="107" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A107" s="14" t="s">
+      <c r="A107" s="13" t="s">
         <v>141</v>
       </c>
       <c r="G107" t="s">
@@ -9145,7 +9146,7 @@
       </c>
     </row>
     <row r="108" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="13" t="s">
         <v>141</v>
       </c>
       <c r="G108" t="s">
@@ -9160,7 +9161,7 @@
       <c r="AE108" s="4"/>
     </row>
     <row r="109" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A109" s="14" t="s">
+      <c r="A109" s="13" t="s">
         <v>176</v>
       </c>
       <c r="B109" t="str">
@@ -9238,7 +9239,7 @@
       </c>
     </row>
     <row r="110" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A110" s="14" t="s">
+      <c r="A110" s="13" t="s">
         <v>176</v>
       </c>
       <c r="AE110" s="4" t="s">
@@ -9246,13 +9247,13 @@
       </c>
     </row>
     <row r="111" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="13" t="s">
         <v>176</v>
       </c>
       <c r="AE111" s="4"/>
     </row>
     <row r="112" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A112" s="14" t="s">
+      <c r="A112" s="13" t="s">
         <v>193</v>
       </c>
       <c r="B112" t="str">
@@ -9402,7 +9403,7 @@
       </c>
     </row>
     <row r="113" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="13" t="s">
         <v>193</v>
       </c>
       <c r="G113" t="s">
@@ -9428,7 +9429,7 @@
       </c>
     </row>
     <row r="114" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="13" t="s">
         <v>193</v>
       </c>
       <c r="G114" t="s">
@@ -9446,7 +9447,7 @@
       <c r="AE114" s="4"/>
     </row>
     <row r="115" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="13" t="s">
         <v>194</v>
       </c>
       <c r="B115" t="str">
@@ -9596,7 +9597,7 @@
       </c>
     </row>
     <row r="116" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="13" t="s">
         <v>194</v>
       </c>
       <c r="G116" t="s">
@@ -9622,7 +9623,7 @@
       </c>
     </row>
     <row r="117" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A117" s="14" t="s">
+      <c r="A117" s="13" t="s">
         <v>194</v>
       </c>
       <c r="G117" t="s">
@@ -9637,7 +9638,7 @@
       <c r="AE117" s="4"/>
     </row>
     <row r="118" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A118" s="14" t="s">
+      <c r="A118" s="13" t="s">
         <v>177</v>
       </c>
       <c r="B118" t="str">
@@ -9787,7 +9788,7 @@
       </c>
     </row>
     <row r="119" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A119" s="14" t="s">
+      <c r="A119" s="13" t="s">
         <v>177</v>
       </c>
       <c r="G119" t="s">
@@ -9813,7 +9814,7 @@
       </c>
     </row>
     <row r="120" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="13" t="s">
         <v>177</v>
       </c>
       <c r="G120" s="5" t="s">
@@ -9833,7 +9834,7 @@
       </c>
     </row>
     <row r="121" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A121" s="14" t="s">
+      <c r="A121" s="13" t="s">
         <v>188</v>
       </c>
       <c r="B121" t="str">
@@ -9911,7 +9912,7 @@
       </c>
     </row>
     <row r="122" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A122" s="14" t="s">
+      <c r="A122" s="13" t="s">
         <v>188</v>
       </c>
       <c r="AE122" s="4" t="s">
@@ -9919,12 +9920,12 @@
       </c>
     </row>
     <row r="123" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="13" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="124" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A124" s="14" t="s">
+      <c r="A124" s="13" t="s">
         <v>192</v>
       </c>
       <c r="B124" t="str">
@@ -10074,7 +10075,7 @@
       </c>
     </row>
     <row r="125" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="13" t="s">
         <v>192</v>
       </c>
       <c r="G125" t="s">
@@ -10100,7 +10101,7 @@
       </c>
     </row>
     <row r="126" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A126" s="14" t="s">
+      <c r="A126" s="13" t="s">
         <v>192</v>
       </c>
       <c r="G126" s="5" t="s">
@@ -10120,7 +10121,7 @@
       </c>
     </row>
     <row r="127" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A127" s="14" t="s">
+      <c r="A127" s="13" t="s">
         <v>198</v>
       </c>
       <c r="B127" t="str">
@@ -10270,7 +10271,7 @@
       </c>
     </row>
     <row r="128" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A128" s="14" t="s">
+      <c r="A128" s="13" t="s">
         <v>198</v>
       </c>
       <c r="G128" t="s">
@@ -10296,7 +10297,7 @@
       </c>
     </row>
     <row r="129" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="13" t="s">
         <v>198</v>
       </c>
       <c r="G129" s="5" t="s">
@@ -10316,7 +10317,7 @@
       </c>
     </row>
     <row r="130" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A130" s="14" t="s">
+      <c r="A130" s="13" t="s">
         <v>354</v>
       </c>
       <c r="B130" t="str">
@@ -10466,7 +10467,7 @@
       </c>
     </row>
     <row r="131" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A131" s="14" t="s">
+      <c r="A131" s="13" t="s">
         <v>354</v>
       </c>
       <c r="G131" t="s">
@@ -10492,7 +10493,7 @@
       </c>
     </row>
     <row r="132" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A132" s="14" t="s">
+      <c r="A132" s="13" t="s">
         <v>354</v>
       </c>
       <c r="G132" s="5" t="s">
@@ -10512,7 +10513,7 @@
       </c>
     </row>
     <row r="133" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A133" s="14" t="s">
+      <c r="A133" s="13" t="s">
         <v>199</v>
       </c>
       <c r="B133" t="str">
@@ -10662,7 +10663,7 @@
       </c>
     </row>
     <row r="134" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A134" s="14" t="s">
+      <c r="A134" s="13" t="s">
         <v>199</v>
       </c>
       <c r="G134" s="5" t="s">
@@ -10689,7 +10690,7 @@
       </c>
     </row>
     <row r="135" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A135" s="14" t="s">
+      <c r="A135" s="13" t="s">
         <v>215</v>
       </c>
       <c r="B135" t="str">
@@ -10839,7 +10840,7 @@
       </c>
     </row>
     <row r="136" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A136" s="14" t="s">
+      <c r="A136" s="13" t="s">
         <v>215</v>
       </c>
       <c r="G136" t="s">
@@ -10871,7 +10872,7 @@
       </c>
     </row>
     <row r="137" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A137" s="14" t="s">
+      <c r="A137" s="13" t="s">
         <v>230</v>
       </c>
       <c r="B137" t="str">
@@ -10949,7 +10950,7 @@
       </c>
     </row>
     <row r="138" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A138" s="14" t="s">
+      <c r="A138" s="13" t="s">
         <v>230</v>
       </c>
       <c r="AE138" t="s">
@@ -10957,7 +10958,7 @@
       </c>
     </row>
     <row r="139" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A139" s="14" t="s">
+      <c r="A139" s="13" t="s">
         <v>257</v>
       </c>
       <c r="B139" t="str">
@@ -11107,7 +11108,7 @@
       </c>
     </row>
     <row r="140" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A140" s="14" t="s">
+      <c r="A140" s="13" t="s">
         <v>257</v>
       </c>
       <c r="G140" t="s">
@@ -11139,7 +11140,7 @@
       </c>
     </row>
     <row r="141" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A141" s="14" t="s">
+      <c r="A141" s="13" t="s">
         <v>258</v>
       </c>
       <c r="B141" t="str">
@@ -11280,7 +11281,7 @@
       </c>
     </row>
     <row r="142" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A142" s="14" t="s">
+      <c r="A142" s="13" t="s">
         <v>258</v>
       </c>
       <c r="G142" t="s">
@@ -11303,7 +11304,7 @@
       </c>
     </row>
     <row r="143" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A143" s="14" t="s">
+      <c r="A143" s="13" t="s">
         <v>299</v>
       </c>
       <c r="B143" t="str">
@@ -11444,7 +11445,7 @@
       </c>
     </row>
     <row r="144" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A144" s="14" t="s">
+      <c r="A144" s="13" t="s">
         <v>299</v>
       </c>
       <c r="G144" t="s">
@@ -11467,7 +11468,7 @@
       </c>
     </row>
     <row r="145" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A145" s="14" t="s">
+      <c r="A145" s="13" t="s">
         <v>184</v>
       </c>
       <c r="B145" t="str">
@@ -11617,7 +11618,7 @@
       </c>
     </row>
     <row r="146" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A146" s="14" t="s">
+      <c r="A146" s="13" t="s">
         <v>184</v>
       </c>
       <c r="G146" t="s">
@@ -11641,7 +11642,7 @@
       <c r="AF146" s="4"/>
     </row>
     <row r="147" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A147" s="14" t="s">
+      <c r="A147" s="13" t="s">
         <v>184</v>
       </c>
       <c r="G147" s="5" t="s">
@@ -11662,7 +11663,7 @@
       <c r="AF147" s="4"/>
     </row>
     <row r="148" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A148" s="14" t="s">
+      <c r="A148" s="13" t="s">
         <v>189</v>
       </c>
       <c r="B148" t="str">
@@ -11741,7 +11742,7 @@
       </c>
     </row>
     <row r="149" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A149" s="14" t="s">
+      <c r="A149" s="13" t="s">
         <v>189</v>
       </c>
       <c r="L149" s="4"/>
@@ -11751,7 +11752,7 @@
       <c r="AF149" s="4"/>
     </row>
     <row r="150" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A150" s="14" t="s">
+      <c r="A150" s="13" t="s">
         <v>191</v>
       </c>
       <c r="B150" t="str">
@@ -11901,7 +11902,7 @@
       </c>
     </row>
     <row r="151" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A151" s="14" t="s">
+      <c r="A151" s="13" t="s">
         <v>191</v>
       </c>
       <c r="G151" t="s">
@@ -11925,7 +11926,7 @@
       <c r="AF151" s="4"/>
     </row>
     <row r="152" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A152" s="14" t="s">
+      <c r="A152" s="13" t="s">
         <v>191</v>
       </c>
       <c r="G152" s="5" t="s">
@@ -11946,7 +11947,7 @@
       <c r="AF152" s="4"/>
     </row>
     <row r="153" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A153" s="14" t="s">
+      <c r="A153" s="13" t="s">
         <v>197</v>
       </c>
       <c r="B153" t="str">
@@ -12096,7 +12097,7 @@
       </c>
     </row>
     <row r="154" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A154" s="14" t="s">
+      <c r="A154" s="13" t="s">
         <v>197</v>
       </c>
       <c r="G154" t="s">
@@ -12120,7 +12121,7 @@
       <c r="AF154" s="4"/>
     </row>
     <row r="155" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A155" s="14" t="s">
+      <c r="A155" s="13" t="s">
         <v>197</v>
       </c>
       <c r="G155" s="5" t="s">
@@ -12141,7 +12142,7 @@
       <c r="AF155" s="4"/>
     </row>
     <row r="156" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A156" s="14" t="s">
+      <c r="A156" s="13" t="s">
         <v>202</v>
       </c>
       <c r="B156" t="str">
@@ -12291,7 +12292,7 @@
       </c>
     </row>
     <row r="157" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A157" s="14" t="s">
+      <c r="A157" s="13" t="s">
         <v>202</v>
       </c>
       <c r="G157" s="5" t="s">
@@ -12319,7 +12320,7 @@
       <c r="AF157" s="4"/>
     </row>
     <row r="158" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A158" s="14" t="s">
+      <c r="A158" s="13" t="s">
         <v>333</v>
       </c>
       <c r="B158" t="str">
@@ -12436,7 +12437,7 @@
       </c>
     </row>
     <row r="159" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A159" s="14" t="s">
+      <c r="A159" s="13" t="s">
         <v>333</v>
       </c>
       <c r="AE159" t="s">
@@ -12445,7 +12446,7 @@
       <c r="AF159" s="4"/>
     </row>
     <row r="160" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A160" s="14" t="s">
+      <c r="A160" s="13" t="s">
         <v>327</v>
       </c>
       <c r="B160" t="str">
@@ -12571,7 +12572,7 @@
       </c>
     </row>
     <row r="161" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A161" s="14" t="s">
+      <c r="A161" s="13" t="s">
         <v>327</v>
       </c>
       <c r="AE161" t="s">
@@ -12580,7 +12581,7 @@
       <c r="AF161" s="4"/>
     </row>
     <row r="162" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A162" s="14" t="s">
+      <c r="A162" s="13" t="s">
         <v>330</v>
       </c>
       <c r="B162" t="str">
@@ -12706,7 +12707,7 @@
       </c>
     </row>
     <row r="163" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A163" s="14" t="s">
+      <c r="A163" s="13" t="s">
         <v>330</v>
       </c>
       <c r="Z163" s="4"/>
@@ -12716,7 +12717,7 @@
       <c r="AF163" s="4"/>
     </row>
     <row r="164" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A164" s="14" t="s">
+      <c r="A164" s="13" t="s">
         <v>339</v>
       </c>
       <c r="B164" t="str">
@@ -12839,7 +12840,7 @@
       </c>
     </row>
     <row r="165" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A165" s="14" t="s">
+      <c r="A165" s="13" t="s">
         <v>339</v>
       </c>
       <c r="AE165" t="s">
@@ -12848,7 +12849,7 @@
       <c r="AF165" s="4"/>
     </row>
     <row r="166" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A166" s="14" t="s">
+      <c r="A166" s="13" t="s">
         <v>342</v>
       </c>
       <c r="B166" t="str">
@@ -12966,7 +12967,7 @@
       </c>
     </row>
     <row r="167" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A167" s="14" t="s">
+      <c r="A167" s="13" t="s">
         <v>342</v>
       </c>
       <c r="AE167" t="s">
@@ -12975,7 +12976,7 @@
       <c r="AF167" s="4"/>
     </row>
     <row r="168" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A168" s="14" t="s">
+      <c r="A168" s="13" t="s">
         <v>336</v>
       </c>
       <c r="B168" t="str">
@@ -13098,7 +13099,7 @@
       </c>
     </row>
     <row r="169" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A169" s="14" t="s">
+      <c r="A169" s="13" t="s">
         <v>336</v>
       </c>
       <c r="AE169" t="s">
@@ -13107,7 +13108,7 @@
       <c r="AF169" s="4"/>
     </row>
     <row r="170" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A170" s="14" t="s">
+      <c r="A170" s="13" t="s">
         <v>246</v>
       </c>
       <c r="B170" t="str">
@@ -13257,7 +13258,7 @@
       </c>
     </row>
     <row r="171" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A171" s="14" t="s">
+      <c r="A171" s="13" t="s">
         <v>246</v>
       </c>
       <c r="G171" t="s">
@@ -13283,7 +13284,7 @@
       </c>
     </row>
     <row r="172" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A172" s="14" t="s">
+      <c r="A172" s="13" t="s">
         <v>253</v>
       </c>
       <c r="B172" t="str">
@@ -13361,7 +13362,7 @@
       </c>
     </row>
     <row r="173" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A173" s="14" t="s">
+      <c r="A173" s="13" t="s">
         <v>253</v>
       </c>
       <c r="AE173" t="s">
@@ -13370,7 +13371,7 @@
       <c r="AF173" s="4"/>
     </row>
     <row r="174" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A174" s="14" t="s">
+      <c r="A174" s="13" t="s">
         <v>363</v>
       </c>
       <c r="B174" t="str">
@@ -13520,7 +13521,7 @@
       </c>
     </row>
     <row r="175" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A175" s="14" t="s">
+      <c r="A175" s="13" t="s">
         <v>363</v>
       </c>
       <c r="G175" t="s">
@@ -13546,7 +13547,7 @@
       </c>
     </row>
     <row r="176" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A176" s="14" t="s">
+      <c r="A176" s="13" t="s">
         <v>375</v>
       </c>
       <c r="B176" t="str">
@@ -13693,7 +13694,7 @@
       </c>
     </row>
     <row r="177" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A177" s="14" t="s">
+      <c r="A177" s="13" t="s">
         <v>375</v>
       </c>
       <c r="G177" t="s">
@@ -13719,7 +13720,7 @@
       </c>
     </row>
     <row r="178" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A178" s="14" t="s">
+      <c r="A178" s="13" t="s">
         <v>223</v>
       </c>
       <c r="B178" t="str">
@@ -13797,7 +13798,7 @@
       </c>
     </row>
     <row r="179" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A179" s="14" t="s">
+      <c r="A179" s="13" t="s">
         <v>223</v>
       </c>
       <c r="AE179" t="s">
@@ -13805,7 +13806,7 @@
       </c>
     </row>
     <row r="180" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A180" s="14" t="s">
+      <c r="A180" s="13" t="s">
         <v>231</v>
       </c>
       <c r="B180" t="str">
@@ -13952,7 +13953,7 @@
       </c>
     </row>
     <row r="181" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A181" s="14" t="s">
+      <c r="A181" s="13" t="s">
         <v>231</v>
       </c>
       <c r="G181" t="s">
@@ -13978,7 +13979,7 @@
       </c>
     </row>
     <row r="182" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A182" s="14" t="s">
+      <c r="A182" s="13" t="s">
         <v>364</v>
       </c>
       <c r="B182" t="str">
@@ -14125,7 +14126,7 @@
       </c>
     </row>
     <row r="183" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A183" s="14" t="s">
+      <c r="A183" s="13" t="s">
         <v>364</v>
       </c>
       <c r="G183" t="s">
@@ -14151,7 +14152,7 @@
       </c>
     </row>
     <row r="184" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A184" s="14" t="s">
+      <c r="A184" s="13" t="s">
         <v>371</v>
       </c>
       <c r="B184" t="str">
@@ -14295,7 +14296,7 @@
       </c>
     </row>
     <row r="185" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A185" s="14" t="s">
+      <c r="A185" s="13" t="s">
         <v>371</v>
       </c>
       <c r="G185" t="s">
@@ -14318,7 +14319,7 @@
       </c>
     </row>
     <row r="186" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A186" s="14" t="s">
+      <c r="A186" s="13" t="s">
         <v>371</v>
       </c>
       <c r="G186" s="5" t="s">
@@ -14338,7 +14339,7 @@
       </c>
     </row>
     <row r="187" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A187" s="14" t="s">
+      <c r="A187" s="13" t="s">
         <v>365</v>
       </c>
       <c r="B187" t="str">
@@ -14485,7 +14486,7 @@
       </c>
     </row>
     <row r="188" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A188" s="14" t="s">
+      <c r="A188" s="13" t="s">
         <v>365</v>
       </c>
       <c r="G188" t="s">
@@ -14511,7 +14512,7 @@
       </c>
     </row>
     <row r="189" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A189" s="14" t="s">
+      <c r="A189" s="13" t="s">
         <v>368</v>
       </c>
       <c r="B189" t="str">
@@ -14658,7 +14659,7 @@
       </c>
     </row>
     <row r="190" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A190" s="14" t="s">
+      <c r="A190" s="13" t="s">
         <v>368</v>
       </c>
       <c r="G190" t="s">
@@ -14684,7 +14685,7 @@
       </c>
     </row>
     <row r="191" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A191" s="14" t="s">
+      <c r="A191" s="13" t="s">
         <v>355</v>
       </c>
       <c r="B191" t="str">
@@ -14834,7 +14835,7 @@
       </c>
     </row>
     <row r="192" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A192" s="14" t="s">
+      <c r="A192" s="13" t="s">
         <v>355</v>
       </c>
       <c r="D192" s="4" t="s">
@@ -14866,7 +14867,7 @@
       </c>
     </row>
     <row r="193" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A193" s="14" t="s">
+      <c r="A193" s="13" t="s">
         <v>355</v>
       </c>
       <c r="G193" t="s">
@@ -14893,7 +14894,7 @@
       <c r="AE193" s="4"/>
     </row>
     <row r="194" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A194" s="14" t="s">
+      <c r="A194" s="13" t="s">
         <v>362</v>
       </c>
       <c r="B194" t="str">
@@ -14977,7 +14978,7 @@
       </c>
     </row>
     <row r="195" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A195" s="14" t="s">
+      <c r="A195" s="13" t="s">
         <v>362</v>
       </c>
       <c r="D195" s="4"/>
@@ -14987,14 +14988,14 @@
       </c>
     </row>
     <row r="196" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A196" s="14" t="s">
+      <c r="A196" s="13" t="s">
         <v>362</v>
       </c>
       <c r="L196" s="4"/>
       <c r="AE196" s="4"/>
     </row>
     <row r="197" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A197" s="14" t="s">
+      <c r="A197" s="13" t="s">
         <v>374</v>
       </c>
       <c r="B197" t="str">
@@ -15144,7 +15145,7 @@
       </c>
     </row>
     <row r="198" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A198" s="14" t="s">
+      <c r="A198" s="13" t="s">
         <v>374</v>
       </c>
       <c r="D198" s="4" t="s">
@@ -15176,7 +15177,7 @@
       </c>
     </row>
     <row r="199" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A199" s="14" t="s">
+      <c r="A199" s="13" t="s">
         <v>374</v>
       </c>
       <c r="G199" t="s">
@@ -15203,7 +15204,7 @@
       <c r="AE199" s="4"/>
     </row>
     <row r="200" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A200" s="14" t="s">
+      <c r="A200" s="13" t="s">
         <v>431</v>
       </c>
       <c r="B200" t="str">
@@ -15349,7 +15350,7 @@
       </c>
     </row>
     <row r="201" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A201" s="14" t="s">
+      <c r="A201" s="13" t="s">
         <v>431</v>
       </c>
       <c r="D201" s="4" t="s">
@@ -15381,7 +15382,7 @@
       </c>
     </row>
     <row r="202" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A202" s="14" t="s">
+      <c r="A202" s="13" t="s">
         <v>431</v>
       </c>
       <c r="G202" t="s">
@@ -15409,7 +15410,7 @@
       <c r="AE202" s="4"/>
     </row>
     <row r="203" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A203" s="14" t="s">
+      <c r="A203" s="13" t="s">
         <v>428</v>
       </c>
       <c r="B203" t="str">
@@ -15552,7 +15553,7 @@
       </c>
     </row>
     <row r="204" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A204" s="14" t="s">
+      <c r="A204" s="13" t="s">
         <v>428</v>
       </c>
       <c r="G204" t="s">
@@ -15584,7 +15585,7 @@
       </c>
     </row>
     <row r="205" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A205" s="14" t="s">
+      <c r="A205" s="13" t="s">
         <v>320</v>
       </c>
       <c r="B205" t="str">
@@ -15731,7 +15732,7 @@
       </c>
     </row>
     <row r="206" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A206" s="14" t="s">
+      <c r="A206" s="13" t="s">
         <v>320</v>
       </c>
       <c r="G206" t="s">
@@ -15757,7 +15758,7 @@
       </c>
     </row>
     <row r="207" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A207" s="14" t="s">
+      <c r="A207" s="13" t="s">
         <v>320</v>
       </c>
       <c r="G207" t="s">
@@ -15780,7 +15781,7 @@
       </c>
     </row>
     <row r="208" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A208" s="14" t="s">
+      <c r="A208" s="13" t="s">
         <v>326</v>
       </c>
       <c r="B208" t="str">
@@ -15858,7 +15859,7 @@
       </c>
     </row>
     <row r="209" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A209" s="14" t="s">
+      <c r="A209" s="13" t="s">
         <v>326</v>
       </c>
       <c r="AE209" s="4" t="s">
@@ -15866,7 +15867,7 @@
       </c>
     </row>
     <row r="210" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A210" s="14" t="s">
+      <c r="A210" s="13" t="s">
         <v>326</v>
       </c>
       <c r="AE210" s="4" t="s">
@@ -15874,7 +15875,7 @@
       </c>
     </row>
     <row r="211" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A211" s="14" t="s">
+      <c r="A211" s="13" t="s">
         <v>427</v>
       </c>
       <c r="B211" t="str">
@@ -16021,7 +16022,7 @@
       </c>
     </row>
     <row r="212" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A212" s="14" t="s">
+      <c r="A212" s="13" t="s">
         <v>427</v>
       </c>
       <c r="G212" t="s">
@@ -16047,7 +16048,7 @@
       </c>
     </row>
     <row r="213" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A213" s="14" t="s">
+      <c r="A213" s="13" t="s">
         <v>427</v>
       </c>
       <c r="G213" t="s">
@@ -16070,7 +16071,7 @@
       </c>
     </row>
     <row r="214" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A214" s="14" t="s">
+      <c r="A214" s="13" t="s">
         <v>261</v>
       </c>
       <c r="B214" t="str">
@@ -16217,7 +16218,7 @@
       </c>
     </row>
     <row r="215" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A215" s="14" t="s">
+      <c r="A215" s="13" t="s">
         <v>261</v>
       </c>
       <c r="D215" s="4"/>
@@ -16229,7 +16230,7 @@
       </c>
     </row>
     <row r="216" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A216" s="14" t="s">
+      <c r="A216" s="13" t="s">
         <v>273</v>
       </c>
       <c r="B216" t="str">
@@ -16307,7 +16308,7 @@
       </c>
     </row>
     <row r="217" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A217" s="14" t="s">
+      <c r="A217" s="13" t="s">
         <v>273</v>
       </c>
       <c r="AE217" s="4" t="s">
@@ -16315,7 +16316,7 @@
       </c>
     </row>
     <row r="218" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A218" s="14" t="s">
+      <c r="A218" s="13" t="s">
         <v>297</v>
       </c>
       <c r="B218" t="str">
@@ -16462,7 +16463,7 @@
       </c>
     </row>
     <row r="219" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A219" s="14" t="s">
+      <c r="A219" s="13" t="s">
         <v>297</v>
       </c>
       <c r="D219" s="4"/>
@@ -16474,7 +16475,7 @@
       </c>
     </row>
     <row r="220" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A220" s="14" t="s">
+      <c r="A220" s="13" t="s">
         <v>268</v>
       </c>
       <c r="B220" t="str">
@@ -16621,7 +16622,7 @@
       </c>
     </row>
     <row r="221" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A221" s="14" t="s">
+      <c r="A221" s="13" t="s">
         <v>268</v>
       </c>
       <c r="D221" s="4"/>
@@ -16648,7 +16649,7 @@
       </c>
     </row>
     <row r="222" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A222" s="14" t="s">
+      <c r="A222" s="13" t="s">
         <v>272</v>
       </c>
       <c r="B222" t="str">
@@ -16726,7 +16727,7 @@
       </c>
     </row>
     <row r="223" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A223" s="14" t="s">
+      <c r="A223" s="13" t="s">
         <v>272</v>
       </c>
       <c r="AE223" s="4" t="s">
@@ -16734,7 +16735,7 @@
       </c>
     </row>
     <row r="224" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A224" s="14" t="s">
+      <c r="A224" s="13" t="s">
         <v>298</v>
       </c>
       <c r="B224" t="e">
@@ -16881,7 +16882,7 @@
       </c>
     </row>
     <row r="225" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A225" s="14" t="s">
+      <c r="A225" s="13" t="s">
         <v>298</v>
       </c>
       <c r="D225" s="4"/>
@@ -16902,7 +16903,7 @@
       </c>
     </row>
     <row r="226" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A226" s="14" t="s">
+      <c r="A226" s="13" t="s">
         <v>411</v>
       </c>
       <c r="B226" t="str">
@@ -17049,7 +17050,7 @@
       </c>
     </row>
     <row r="227" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A227" s="14" t="s">
+      <c r="A227" s="13" t="s">
         <v>411</v>
       </c>
       <c r="D227" s="4"/>
@@ -17076,7 +17077,7 @@
       </c>
     </row>
     <row r="228" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A228" s="14" t="s">
+      <c r="A228" s="13" t="s">
         <v>415</v>
       </c>
       <c r="B228" t="str">
@@ -17223,7 +17224,7 @@
       </c>
     </row>
     <row r="229" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A229" s="14" t="s">
+      <c r="A229" s="13" t="s">
         <v>415</v>
       </c>
       <c r="G229" t="s">
@@ -17249,7 +17250,7 @@
       </c>
     </row>
     <row r="230" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A230" s="14" t="s">
+      <c r="A230" s="13" t="s">
         <v>424</v>
       </c>
       <c r="B230" t="str">
@@ -17387,7 +17388,7 @@
       </c>
     </row>
     <row r="231" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A231" s="14" t="s">
+      <c r="A231" s="13" t="s">
         <v>424</v>
       </c>
       <c r="D231" s="4"/>
@@ -17401,7 +17402,7 @@
       </c>
     </row>
     <row r="232" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A232" s="14" t="s">
+      <c r="A232" s="13" t="s">
         <v>424</v>
       </c>
       <c r="D232" s="4"/>
@@ -17419,7 +17420,7 @@
       <c r="AE232" s="4"/>
     </row>
     <row r="233" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A233" s="14" t="s">
+      <c r="A233" s="13" t="s">
         <v>424</v>
       </c>
       <c r="D233" s="4"/>
@@ -17431,7 +17432,7 @@
       <c r="AE233" s="4"/>
     </row>
     <row r="234" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A234" s="14" t="s">
+      <c r="A234" s="13" t="s">
         <v>421</v>
       </c>
       <c r="B234" t="str">
@@ -17578,7 +17579,7 @@
       </c>
     </row>
     <row r="235" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A235" s="14" t="s">
+      <c r="A235" s="13" t="s">
         <v>421</v>
       </c>
       <c r="Y235" t="s">
@@ -17589,7 +17590,7 @@
       </c>
     </row>
     <row r="236" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A236" s="14" t="s">
+      <c r="A236" s="13" t="s">
         <v>412</v>
       </c>
       <c r="B236" t="str">
@@ -17736,7 +17737,7 @@
       </c>
     </row>
     <row r="237" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A237" s="14" t="s">
+      <c r="A237" s="13" t="s">
         <v>412</v>
       </c>
       <c r="D237" s="4"/>
@@ -17763,7 +17764,7 @@
       </c>
     </row>
     <row r="238" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A238" s="14" t="s">
+      <c r="A238" s="13" t="s">
         <v>418</v>
       </c>
       <c r="B238" t="str">
@@ -17910,7 +17911,7 @@
       </c>
     </row>
     <row r="239" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A239" s="14" t="s">
+      <c r="A239" s="13" t="s">
         <v>418</v>
       </c>
       <c r="G239" t="s">
@@ -17936,7 +17937,7 @@
       </c>
     </row>
     <row r="240" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A240" s="14" t="s">
+      <c r="A240" s="13" t="s">
         <v>408</v>
       </c>
       <c r="B240" t="str">
@@ -18083,7 +18084,7 @@
       </c>
     </row>
     <row r="241" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A241" s="14" t="s">
+      <c r="A241" s="13" t="s">
         <v>408</v>
       </c>
       <c r="Y241" t="s">
@@ -18094,7 +18095,7 @@
       </c>
     </row>
     <row r="242" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A242" s="14" t="s">
+      <c r="A242" s="13" t="s">
         <v>408</v>
       </c>
       <c r="Y242" t="s">
@@ -18109,7 +18110,7 @@
       <c r="AE242" s="4"/>
     </row>
     <row r="243" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A243" s="14" t="s">
+      <c r="A243" s="13" t="s">
         <v>408</v>
       </c>
       <c r="Y243" t="s">
@@ -18118,7 +18119,7 @@
       <c r="AE243" s="4"/>
     </row>
     <row r="244" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A244" s="14" t="s">
+      <c r="A244" s="13" t="s">
         <v>239</v>
       </c>
       <c r="B244" t="str">
@@ -18196,7 +18197,7 @@
       </c>
     </row>
     <row r="245" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A245" s="14" t="s">
+      <c r="A245" s="13" t="s">
         <v>239</v>
       </c>
       <c r="AE245" s="4" t="s">
@@ -18204,7 +18205,7 @@
       </c>
     </row>
     <row r="246" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A246" s="14" t="s">
+      <c r="A246" s="13" t="s">
         <v>245</v>
       </c>
       <c r="B246" t="str">
@@ -18351,7 +18352,7 @@
       </c>
     </row>
     <row r="247" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A247" s="14" t="s">
+      <c r="A247" s="13" t="s">
         <v>245</v>
       </c>
       <c r="G247" t="s">
@@ -18377,7 +18378,7 @@
       </c>
     </row>
     <row r="248" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A248" s="14" t="s">
+      <c r="A248" s="13" t="s">
         <v>399</v>
       </c>
       <c r="B248" t="str">
@@ -18524,7 +18525,7 @@
       </c>
     </row>
     <row r="249" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A249" s="14" t="s">
+      <c r="A249" s="13" t="s">
         <v>399</v>
       </c>
       <c r="G249" t="s">
@@ -18550,7 +18551,7 @@
       </c>
     </row>
     <row r="250" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A250" s="15" t="s">
+      <c r="A250" s="14" t="s">
         <v>107</v>
       </c>
       <c r="B250" t="str">
@@ -18697,7 +18698,7 @@
       </c>
     </row>
     <row r="251" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A251" s="15" t="s">
+      <c r="A251" s="14" t="s">
         <v>107</v>
       </c>
       <c r="Y251" t="s">
@@ -18708,7 +18709,7 @@
       </c>
     </row>
     <row r="252" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A252" s="15" t="s">
+      <c r="A252" s="14" t="s">
         <v>107</v>
       </c>
       <c r="AE252" s="4" t="s">
@@ -18716,7 +18717,7 @@
       </c>
     </row>
     <row r="253" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A253" s="15" t="s">
+      <c r="A253" s="14" t="s">
         <v>115</v>
       </c>
       <c r="B253" t="str">
@@ -18863,7 +18864,7 @@
       </c>
     </row>
     <row r="254" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A254" s="15" t="s">
+      <c r="A254" s="14" t="s">
         <v>115</v>
       </c>
       <c r="Y254" t="s">
@@ -18874,7 +18875,7 @@
       </c>
     </row>
     <row r="255" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A255" s="15" t="s">
+      <c r="A255" s="14" t="s">
         <v>115</v>
       </c>
       <c r="AE255" s="4" t="s">
@@ -18882,7 +18883,7 @@
       </c>
     </row>
     <row r="256" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A256" s="15" t="s">
+      <c r="A256" s="14" t="s">
         <v>116</v>
       </c>
       <c r="B256" t="str">
@@ -19029,7 +19030,7 @@
       </c>
     </row>
     <row r="257" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A257" s="15" t="s">
+      <c r="A257" s="14" t="s">
         <v>116</v>
       </c>
       <c r="Y257" t="s">
@@ -19040,7 +19041,7 @@
       </c>
     </row>
     <row r="258" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A258" s="15" t="s">
+      <c r="A258" s="14" t="s">
         <v>116</v>
       </c>
       <c r="AE258" s="4" t="s">
@@ -19048,7 +19049,7 @@
       </c>
     </row>
     <row r="259" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A259" s="15" t="s">
+      <c r="A259" s="14" t="s">
         <v>118</v>
       </c>
       <c r="B259" t="str">
@@ -19195,7 +19196,7 @@
       </c>
     </row>
     <row r="260" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A260" s="15" t="s">
+      <c r="A260" s="14" t="s">
         <v>118</v>
       </c>
       <c r="Y260" t="s">
@@ -19206,7 +19207,7 @@
       </c>
     </row>
     <row r="261" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A261" s="15" t="s">
+      <c r="A261" s="14" t="s">
         <v>118</v>
       </c>
       <c r="AE261" s="4" t="s">
@@ -19214,7 +19215,7 @@
       </c>
     </row>
     <row r="262" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A262" s="14" t="s">
+      <c r="A262" s="13" t="s">
         <v>400</v>
       </c>
       <c r="B262" t="str">
@@ -19292,7 +19293,7 @@
       </c>
     </row>
     <row r="263" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A263" s="14" t="s">
+      <c r="A263" s="13" t="s">
         <v>400</v>
       </c>
       <c r="AE263" s="4" t="s">
@@ -19300,7 +19301,7 @@
       </c>
     </row>
     <row r="264" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A264" s="14" t="s">
+      <c r="A264" s="13" t="s">
         <v>400</v>
       </c>
       <c r="AE264" s="4" t="s">
@@ -19308,7 +19309,7 @@
       </c>
     </row>
     <row r="265" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A265" s="14" t="s">
+      <c r="A265" s="13" t="s">
         <v>407</v>
       </c>
       <c r="B265" t="str">
@@ -19455,7 +19456,7 @@
       </c>
     </row>
     <row r="266" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A266" s="14" t="s">
+      <c r="A266" s="13" t="s">
         <v>407</v>
       </c>
       <c r="G266" t="s">
@@ -19481,7 +19482,7 @@
       </c>
     </row>
     <row r="267" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A267" s="14" t="s">
+      <c r="A267" s="13" t="s">
         <v>407</v>
       </c>
       <c r="AE267" s="4" t="s">
@@ -19489,7 +19490,7 @@
       </c>
     </row>
     <row r="268" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A268" s="14" t="s">
+      <c r="A268" s="13" t="s">
         <v>392</v>
       </c>
       <c r="B268" t="str">
@@ -19636,7 +19637,7 @@
       </c>
     </row>
     <row r="269" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A269" s="14" t="s">
+      <c r="A269" s="13" t="s">
         <v>392</v>
       </c>
       <c r="D269" s="4"/>
@@ -19665,7 +19666,7 @@
       </c>
     </row>
     <row r="270" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A270" s="14" t="s">
+      <c r="A270" s="13" t="s">
         <v>397</v>
       </c>
       <c r="B270" t="str">
@@ -19743,7 +19744,7 @@
       </c>
     </row>
     <row r="271" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A271" s="14" t="s">
+      <c r="A271" s="13" t="s">
         <v>397</v>
       </c>
       <c r="AE271" s="4" t="s">
@@ -19751,7 +19752,7 @@
       </c>
     </row>
     <row r="272" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A272" s="14" t="s">
+      <c r="A272" s="13" t="s">
         <v>385</v>
       </c>
       <c r="B272" t="str">
@@ -19898,7 +19899,7 @@
       </c>
     </row>
     <row r="273" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A273" s="14" t="s">
+      <c r="A273" s="13" t="s">
         <v>385</v>
       </c>
       <c r="D273" s="4"/>
@@ -19927,7 +19928,7 @@
       </c>
     </row>
     <row r="274" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A274" s="14" t="s">
+      <c r="A274" s="13" t="s">
         <v>396</v>
       </c>
       <c r="B274" t="str">
@@ -20005,7 +20006,7 @@
       </c>
     </row>
     <row r="275" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A275" s="14" t="s">
+      <c r="A275" s="13" t="s">
         <v>396</v>
       </c>
       <c r="AE275" s="4" t="s">
@@ -20013,7 +20014,7 @@
       </c>
     </row>
     <row r="276" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A276" s="14" t="s">
+      <c r="A276" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B276" t="str">
@@ -20166,7 +20167,7 @@
       </c>
     </row>
     <row r="277" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A277" s="14" t="s">
+      <c r="A277" s="13" t="s">
         <v>90</v>
       </c>
       <c r="D277" s="4" t="s">
@@ -20202,7 +20203,7 @@
       </c>
     </row>
     <row r="278" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A278" s="14" t="s">
+      <c r="A278" s="13" t="s">
         <v>90</v>
       </c>
       <c r="G278" t="s">
@@ -20228,7 +20229,7 @@
       </c>
     </row>
     <row r="279" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A279" s="14" t="s">
+      <c r="A279" s="13" t="s">
         <v>104</v>
       </c>
       <c r="B279" t="str">
@@ -20381,7 +20382,7 @@
       </c>
     </row>
     <row r="280" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A280" s="14" t="s">
+      <c r="A280" s="13" t="s">
         <v>104</v>
       </c>
       <c r="D280" s="4" t="s">
@@ -20417,7 +20418,7 @@
       </c>
     </row>
     <row r="281" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A281" s="14" t="s">
+      <c r="A281" s="13" t="s">
         <v>104</v>
       </c>
       <c r="G281" t="s">
@@ -20443,7 +20444,7 @@
       </c>
     </row>
     <row r="282" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A282" s="14" t="s">
+      <c r="A282" s="13" t="s">
         <v>378</v>
       </c>
       <c r="C282" t="s">
@@ -20586,7 +20587,7 @@
       </c>
     </row>
     <row r="283" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A283" s="14" t="s">
+      <c r="A283" s="13" t="s">
         <v>378</v>
       </c>
       <c r="G283" t="s">
@@ -20614,7 +20615,7 @@
       </c>
     </row>
     <row r="284" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A284" s="14" t="s">
+      <c r="A284" s="13" t="s">
         <v>398</v>
       </c>
       <c r="B284" t="str">
@@ -20692,7 +20693,7 @@
       </c>
     </row>
     <row r="285" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A285" s="14" t="s">
+      <c r="A285" s="13" t="s">
         <v>398</v>
       </c>
       <c r="AE285" s="4" t="s">
@@ -20700,7 +20701,7 @@
       </c>
     </row>
     <row r="286" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A286" s="14" t="s">
+      <c r="A286" s="13" t="s">
         <v>163</v>
       </c>
       <c r="B286" t="str">
@@ -20778,7 +20779,7 @@
       </c>
     </row>
     <row r="287" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A287" s="14" t="s">
+      <c r="A287" s="13" t="s">
         <v>163</v>
       </c>
       <c r="AE287" s="4" t="s">
@@ -20786,7 +20787,7 @@
       </c>
     </row>
     <row r="288" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A288" s="14" t="s">
+      <c r="A288" s="13" t="s">
         <v>160</v>
       </c>
       <c r="B288" t="str">
@@ -20939,7 +20940,7 @@
       </c>
     </row>
     <row r="289" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A289" s="14" t="s">
+      <c r="A289" s="13" t="s">
         <v>160</v>
       </c>
       <c r="G289" t="s">
@@ -20964,7 +20965,7 @@
       </c>
     </row>
     <row r="290" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A290" s="14" t="s">
+      <c r="A290" s="13" t="s">
         <v>154</v>
       </c>
       <c r="B290" t="str">
@@ -21117,7 +21118,7 @@
       </c>
     </row>
     <row r="291" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A291" s="14" t="s">
+      <c r="A291" s="13" t="s">
         <v>154</v>
       </c>
       <c r="G291" t="s">
@@ -21142,7 +21143,7 @@
       </c>
     </row>
     <row r="292" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A292" s="14" t="s">
+      <c r="A292" s="13" t="s">
         <v>157</v>
       </c>
       <c r="B292" t="str">
@@ -21295,7 +21296,7 @@
       </c>
     </row>
     <row r="293" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A293" s="14" t="s">
+      <c r="A293" s="13" t="s">
         <v>157</v>
       </c>
       <c r="G293" t="s">
@@ -21320,7 +21321,7 @@
       </c>
     </row>
     <row r="294" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A294" s="14" t="s">
+      <c r="A294" s="13" t="s">
         <v>151</v>
       </c>
       <c r="B294" t="str">
@@ -21473,7 +21474,7 @@
       </c>
     </row>
     <row r="295" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A295" s="14" t="s">
+      <c r="A295" s="13" t="s">
         <v>151</v>
       </c>
       <c r="G295" t="s">
@@ -21498,7 +21499,7 @@
       </c>
     </row>
     <row r="296" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A296" s="14" t="s">
+      <c r="A296" s="13" t="s">
         <v>318</v>
       </c>
       <c r="B296" t="str">
@@ -21633,7 +21634,7 @@
       </c>
     </row>
     <row r="297" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A297" s="14" t="s">
+      <c r="A297" s="13" t="s">
         <v>318</v>
       </c>
       <c r="G297" t="s">
@@ -21657,7 +21658,7 @@
       <c r="AF297" s="4"/>
     </row>
     <row r="298" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A298" s="14" t="s">
+      <c r="A298" s="13" t="s">
         <v>318</v>
       </c>
       <c r="G298" s="5" t="s">
@@ -21678,7 +21679,7 @@
       <c r="AF298" s="4"/>
     </row>
     <row r="299" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A299" s="14" t="s">
+      <c r="A299" s="13" t="s">
         <v>319</v>
       </c>
       <c r="B299" t="str">
@@ -21813,7 +21814,7 @@
       </c>
     </row>
     <row r="300" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A300" s="14" t="s">
+      <c r="A300" s="13" t="s">
         <v>319</v>
       </c>
       <c r="B300" t="str">
@@ -21847,7 +21848,7 @@
       </c>
     </row>
     <row r="301" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A301" s="14" t="s">
+      <c r="A301" s="13" t="s">
         <v>319</v>
       </c>
       <c r="G301" s="5" t="s">

--- a/DnaRepairSpreadsheetParser/test/exampleData/dnarepairmindataspreadsheets/NCGC-DNA repair.xlsx
+++ b/DnaRepairSpreadsheetParser/test/exampleData/dnarepairmindataspreadsheets/NCGC-DNA repair.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5721" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5722" uniqueCount="723">
   <si>
     <t>Instructions:
 Fill out from left to right.  Watch for red errors, correct them before moving on to the next column</t>
@@ -2204,6 +2204,9 @@
   </si>
   <si>
     <t>PubChem CID</t>
+  </si>
+  <si>
+    <t>assay component role</t>
   </si>
 </sst>
 </file>
@@ -2281,9 +2284,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2293,6 +2293,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2605,14 +2608,14 @@
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane xSplit="2565" ySplit="8805" topLeftCell="A8" activePane="topRight"/>
       <selection activeCell="I301" sqref="I301"/>
-      <selection pane="topRight" activeCell="G2" sqref="G2"/>
+      <selection pane="topRight" activeCell="G3" sqref="G3"/>
       <selection pane="bottomLeft" activeCell="A301" sqref="A3:A301"/>
       <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="12" customWidth="1"/>
     <col min="2" max="7" width="20.7109375" customWidth="1"/>
     <col min="8" max="8" width="66" customWidth="1"/>
     <col min="9" max="15" width="20.7109375" customWidth="1"/>
@@ -2630,7 +2633,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="2" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2711,7 +2714,7 @@
       <c r="AI1" s="16"/>
     </row>
     <row r="2" spans="1:54" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2729,7 +2732,9 @@
       <c r="F2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="15" t="s">
+        <v>722</v>
+      </c>
       <c r="H2" s="3" t="s">
         <v>25</v>
       </c>
@@ -2873,7 +2878,7 @@
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>232</v>
       </c>
       <c r="B3" t="str">
@@ -3023,7 +3028,7 @@
       </c>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>232</v>
       </c>
       <c r="G4" t="s">
@@ -3056,7 +3061,7 @@
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>232</v>
       </c>
       <c r="G5" t="s">
@@ -3080,7 +3085,7 @@
       </c>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>232</v>
       </c>
       <c r="G6" t="s">
@@ -3108,7 +3113,7 @@
       <c r="AE6" s="4"/>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>238</v>
       </c>
       <c r="B7" t="str">
@@ -3187,7 +3192,7 @@
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>238</v>
       </c>
       <c r="D8" s="4"/>
@@ -3196,7 +3201,7 @@
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>238</v>
       </c>
       <c r="D9" s="4"/>
@@ -3205,14 +3210,14 @@
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>238</v>
       </c>
       <c r="D10" s="4"/>
       <c r="AE10" s="4"/>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>279</v>
       </c>
       <c r="B11" t="str">
@@ -3362,7 +3367,7 @@
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>279</v>
       </c>
       <c r="G12" t="s">
@@ -3395,7 +3400,7 @@
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>279</v>
       </c>
       <c r="G13" t="s">
@@ -3419,7 +3424,7 @@
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>279</v>
       </c>
       <c r="G14" t="s">
@@ -3447,7 +3452,7 @@
       <c r="AE14" s="4"/>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>287</v>
       </c>
       <c r="B15" t="str">
@@ -3597,7 +3602,7 @@
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>287</v>
       </c>
       <c r="G16" t="s">
@@ -3630,7 +3635,7 @@
       </c>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>287</v>
       </c>
       <c r="G17" t="s">
@@ -3654,7 +3659,7 @@
       </c>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>287</v>
       </c>
       <c r="G18" t="s">
@@ -3682,7 +3687,7 @@
       <c r="AE18" s="4"/>
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>296</v>
       </c>
       <c r="B19" t="str">
@@ -3808,7 +3813,7 @@
       </c>
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>296</v>
       </c>
       <c r="C20" t="s">
@@ -3834,7 +3839,7 @@
       </c>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>296</v>
       </c>
       <c r="G21" t="s">
@@ -3857,7 +3862,7 @@
       </c>
     </row>
     <row r="22" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>280</v>
       </c>
       <c r="B22" t="str">
@@ -4007,7 +4012,7 @@
       </c>
     </row>
     <row r="23" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>280</v>
       </c>
       <c r="G23" t="s">
@@ -4040,7 +4045,7 @@
       </c>
     </row>
     <row r="24" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>280</v>
       </c>
       <c r="G24" t="s">
@@ -4070,7 +4075,7 @@
       </c>
     </row>
     <row r="25" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>286</v>
       </c>
       <c r="B25" t="str">
@@ -4220,7 +4225,7 @@
       </c>
     </row>
     <row r="26" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>286</v>
       </c>
       <c r="G26" t="s">
@@ -4253,7 +4258,7 @@
       </c>
     </row>
     <row r="27" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>286</v>
       </c>
       <c r="G27" t="s">
@@ -4283,7 +4288,7 @@
       </c>
     </row>
     <row r="28" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>283</v>
       </c>
       <c r="B28" t="str">
@@ -4433,7 +4438,7 @@
       </c>
     </row>
     <row r="29" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>283</v>
       </c>
       <c r="G29" t="s">
@@ -4471,7 +4476,7 @@
       </c>
     </row>
     <row r="30" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="12" t="s">
         <v>283</v>
       </c>
       <c r="G30" t="s">
@@ -4494,7 +4499,7 @@
       </c>
     </row>
     <row r="31" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>283</v>
       </c>
       <c r="G31" t="s">
@@ -4518,7 +4523,7 @@
       <c r="AE31" s="4"/>
     </row>
     <row r="32" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>283</v>
       </c>
       <c r="G32" t="s">
@@ -4539,7 +4544,7 @@
       <c r="AE32" s="4"/>
     </row>
     <row r="33" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>288</v>
       </c>
       <c r="B33" t="str">
@@ -4689,7 +4694,7 @@
       </c>
     </row>
     <row r="34" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>288</v>
       </c>
       <c r="G34" t="s">
@@ -4727,7 +4732,7 @@
       </c>
     </row>
     <row r="35" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="12" t="s">
         <v>288</v>
       </c>
       <c r="G35" t="s">
@@ -4750,7 +4755,7 @@
       </c>
     </row>
     <row r="36" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="12" t="s">
         <v>288</v>
       </c>
       <c r="G36" t="s">
@@ -4774,7 +4779,7 @@
       <c r="AE36" s="4"/>
     </row>
     <row r="37" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="12" t="s">
         <v>288</v>
       </c>
       <c r="G37" t="s">
@@ -4795,7 +4800,7 @@
       <c r="AE37" s="4"/>
     </row>
     <row r="38" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
         <v>276</v>
       </c>
       <c r="B38" t="str">
@@ -4945,7 +4950,7 @@
       </c>
     </row>
     <row r="39" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="12" t="s">
         <v>276</v>
       </c>
       <c r="G39" t="s">
@@ -4983,7 +4988,7 @@
       </c>
     </row>
     <row r="40" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="12" t="s">
         <v>276</v>
       </c>
       <c r="G40" t="s">
@@ -5006,7 +5011,7 @@
       </c>
     </row>
     <row r="41" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="12" t="s">
         <v>276</v>
       </c>
       <c r="G41" t="s">
@@ -5030,7 +5035,7 @@
       <c r="AE41" s="4"/>
     </row>
     <row r="42" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="12" t="s">
         <v>276</v>
       </c>
       <c r="G42" t="s">
@@ -5051,7 +5056,7 @@
       <c r="AE42" s="4"/>
     </row>
     <row r="43" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="12" t="s">
         <v>289</v>
       </c>
       <c r="B43" t="str">
@@ -5192,7 +5197,7 @@
       </c>
     </row>
     <row r="44" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="12" t="s">
         <v>289</v>
       </c>
       <c r="G44" t="s">
@@ -5224,7 +5229,7 @@
       </c>
     </row>
     <row r="45" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="12" t="s">
         <v>289</v>
       </c>
       <c r="G45" t="s">
@@ -5253,7 +5258,7 @@
       </c>
     </row>
     <row r="46" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="12" t="s">
         <v>290</v>
       </c>
       <c r="B46" t="str">
@@ -5388,7 +5393,7 @@
       </c>
     </row>
     <row r="47" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="12" t="s">
         <v>290</v>
       </c>
       <c r="G47" t="s">
@@ -5414,7 +5419,7 @@
       </c>
     </row>
     <row r="48" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="12" t="s">
         <v>290</v>
       </c>
       <c r="G48" t="s">
@@ -5443,7 +5448,7 @@
       </c>
     </row>
     <row r="49" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="12" t="s">
         <v>290</v>
       </c>
       <c r="N49" t="s">
@@ -5455,7 +5460,7 @@
       <c r="AE49" s="4"/>
     </row>
     <row r="50" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="12" t="s">
         <v>293</v>
       </c>
       <c r="B50" t="str">
@@ -5584,7 +5589,7 @@
       </c>
     </row>
     <row r="51" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="12" t="s">
         <v>293</v>
       </c>
       <c r="G51" t="s">
@@ -5607,7 +5612,7 @@
       </c>
     </row>
     <row r="52" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="12" t="s">
         <v>293</v>
       </c>
       <c r="AE52" s="4" t="s">
@@ -5615,13 +5620,13 @@
       </c>
     </row>
     <row r="53" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="12" t="s">
         <v>293</v>
       </c>
       <c r="AE53" s="4"/>
     </row>
     <row r="54" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="12" t="s">
         <v>348</v>
       </c>
       <c r="B54" t="str">
@@ -5744,7 +5749,7 @@
       </c>
     </row>
     <row r="55" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="12" t="s">
         <v>348</v>
       </c>
       <c r="D55" s="4"/>
@@ -5753,7 +5758,7 @@
       </c>
     </row>
     <row r="56" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="12" t="s">
         <v>348</v>
       </c>
       <c r="D56" s="4"/>
@@ -5762,7 +5767,7 @@
       </c>
     </row>
     <row r="57" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="12" t="s">
         <v>351</v>
       </c>
       <c r="B57" t="str">
@@ -5885,7 +5890,7 @@
       </c>
     </row>
     <row r="58" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="12" t="s">
         <v>351</v>
       </c>
       <c r="D58" s="4"/>
@@ -5903,7 +5908,7 @@
       </c>
     </row>
     <row r="59" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="12" t="s">
         <v>351</v>
       </c>
       <c r="D59" s="4"/>
@@ -5912,7 +5917,7 @@
       </c>
     </row>
     <row r="60" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="12" t="s">
         <v>345</v>
       </c>
       <c r="B60" t="str">
@@ -6029,7 +6034,7 @@
       </c>
     </row>
     <row r="61" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="12" t="s">
         <v>345</v>
       </c>
       <c r="AE61" s="4" t="s">
@@ -6037,7 +6042,7 @@
       </c>
     </row>
     <row r="62" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="12" t="s">
         <v>345</v>
       </c>
       <c r="AE62" s="4" t="s">
@@ -6045,7 +6050,7 @@
       </c>
     </row>
     <row r="63" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="12" t="s">
         <v>174</v>
       </c>
       <c r="B63" t="str">
@@ -6123,7 +6128,7 @@
       </c>
     </row>
     <row r="64" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="12" t="s">
         <v>174</v>
       </c>
       <c r="AE64" s="4" t="s">
@@ -6131,7 +6136,7 @@
       </c>
     </row>
     <row r="65" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="12" t="s">
         <v>164</v>
       </c>
       <c r="B65" t="str">
@@ -6281,7 +6286,7 @@
       </c>
     </row>
     <row r="66" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="12" t="s">
         <v>164</v>
       </c>
       <c r="D66" s="4" t="s">
@@ -6340,7 +6345,7 @@
       </c>
     </row>
     <row r="67" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="12" t="s">
         <v>164</v>
       </c>
       <c r="G67" t="s">
@@ -6370,7 +6375,7 @@
       <c r="AE67" s="4"/>
     </row>
     <row r="68" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="12" t="s">
         <v>164</v>
       </c>
       <c r="I68" s="4"/>
@@ -6381,7 +6386,7 @@
       <c r="AE68" s="4"/>
     </row>
     <row r="69" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="12" t="s">
         <v>171</v>
       </c>
       <c r="B69" t="str">
@@ -6531,7 +6536,7 @@
       </c>
     </row>
     <row r="70" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="12" t="s">
         <v>171</v>
       </c>
       <c r="D70" s="4" t="s">
@@ -6590,7 +6595,7 @@
       </c>
     </row>
     <row r="71" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="12" t="s">
         <v>171</v>
       </c>
       <c r="G71" t="s">
@@ -6620,7 +6625,7 @@
       <c r="AE71" s="4"/>
     </row>
     <row r="72" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="12" t="s">
         <v>171</v>
       </c>
       <c r="I72" s="4"/>
@@ -6631,7 +6636,7 @@
       <c r="AE72" s="4"/>
     </row>
     <row r="73" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="12" t="s">
         <v>214</v>
       </c>
       <c r="B73" t="str">
@@ -6781,7 +6786,7 @@
       </c>
     </row>
     <row r="74" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="12" t="s">
         <v>214</v>
       </c>
       <c r="D74" s="4" t="s">
@@ -6840,7 +6845,7 @@
       </c>
     </row>
     <row r="75" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="12" t="s">
         <v>214</v>
       </c>
       <c r="G75" t="s">
@@ -6870,7 +6875,7 @@
       <c r="AE75" s="4"/>
     </row>
     <row r="76" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="12" t="s">
         <v>214</v>
       </c>
       <c r="I76" s="4"/>
@@ -6881,7 +6886,7 @@
       <c r="AE76" s="4"/>
     </row>
     <row r="77" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="12" t="s">
         <v>300</v>
       </c>
       <c r="B77" t="str">
@@ -7031,7 +7036,7 @@
       </c>
     </row>
     <row r="78" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="12" t="s">
         <v>300</v>
       </c>
       <c r="D78" s="4" t="s">
@@ -7090,7 +7095,7 @@
       </c>
     </row>
     <row r="79" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A79" s="13" t="s">
+      <c r="A79" s="12" t="s">
         <v>300</v>
       </c>
       <c r="G79" t="s">
@@ -7120,7 +7125,7 @@
       <c r="AE79" s="4"/>
     </row>
     <row r="80" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="12" t="s">
         <v>300</v>
       </c>
       <c r="I80" s="4"/>
@@ -7131,7 +7136,7 @@
       <c r="AE80" s="4"/>
     </row>
     <row r="81" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="12" t="s">
         <v>204</v>
       </c>
       <c r="B81" t="str">
@@ -7284,7 +7289,7 @@
       </c>
     </row>
     <row r="82" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="12" t="s">
         <v>204</v>
       </c>
       <c r="D82" s="4" t="s">
@@ -7331,7 +7336,7 @@
       </c>
     </row>
     <row r="83" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A83" s="13" t="s">
+      <c r="A83" s="12" t="s">
         <v>204</v>
       </c>
       <c r="G83" t="s">
@@ -7357,7 +7362,7 @@
       </c>
     </row>
     <row r="84" spans="1:54" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="12" t="s">
         <v>209</v>
       </c>
       <c r="B84" t="str">
@@ -7501,7 +7506,7 @@
       </c>
     </row>
     <row r="85" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="12" t="s">
         <v>209</v>
       </c>
       <c r="D85" s="4" t="s">
@@ -7539,7 +7544,7 @@
       </c>
     </row>
     <row r="86" spans="1:54" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="12" t="s">
         <v>301</v>
       </c>
       <c r="B86" t="str">
@@ -7683,7 +7688,7 @@
       </c>
     </row>
     <row r="87" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="12" t="s">
         <v>301</v>
       </c>
       <c r="D87" s="4" t="s">
@@ -7717,7 +7722,7 @@
       </c>
     </row>
     <row r="88" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="12" t="s">
         <v>213</v>
       </c>
       <c r="B88" t="str">
@@ -7867,7 +7872,7 @@
       </c>
     </row>
     <row r="89" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="12" t="s">
         <v>213</v>
       </c>
       <c r="D89" s="4" t="s">
@@ -7926,7 +7931,7 @@
       </c>
     </row>
     <row r="90" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A90" s="13" t="s">
+      <c r="A90" s="12" t="s">
         <v>213</v>
       </c>
       <c r="G90" t="s">
@@ -7956,7 +7961,7 @@
       <c r="AE90" s="4"/>
     </row>
     <row r="91" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="14" t="s">
         <v>720</v>
       </c>
       <c r="B91" t="str">
@@ -8106,7 +8111,7 @@
       </c>
     </row>
     <row r="92" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="14" t="s">
         <v>720</v>
       </c>
       <c r="G92" t="s">
@@ -8132,7 +8137,7 @@
       </c>
     </row>
     <row r="93" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A93" s="15" t="s">
+      <c r="A93" s="14" t="s">
         <v>720</v>
       </c>
       <c r="G93" t="s">
@@ -8150,7 +8155,7 @@
       <c r="AE93" s="4"/>
     </row>
     <row r="94" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A94" s="13" t="s">
+      <c r="A94" s="12" t="s">
         <v>254</v>
       </c>
       <c r="B94" t="str">
@@ -8294,7 +8299,7 @@
       </c>
     </row>
     <row r="95" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A95" s="13" t="s">
+      <c r="A95" s="12" t="s">
         <v>254</v>
       </c>
       <c r="G95" t="s">
@@ -8317,7 +8322,7 @@
       </c>
     </row>
     <row r="96" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A96" s="13" t="s">
+      <c r="A96" s="12" t="s">
         <v>303</v>
       </c>
       <c r="B96" t="str">
@@ -8434,7 +8439,7 @@
       </c>
     </row>
     <row r="97" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A97" s="13" t="s">
+      <c r="A97" s="12" t="s">
         <v>303</v>
       </c>
       <c r="AE97" s="4" t="s">
@@ -8442,7 +8447,7 @@
       </c>
     </row>
     <row r="98" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A98" s="13" t="s">
+      <c r="A98" s="12" t="s">
         <v>306</v>
       </c>
       <c r="B98" t="str">
@@ -8568,7 +8573,7 @@
       </c>
     </row>
     <row r="99" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A99" s="13" t="s">
+      <c r="A99" s="12" t="s">
         <v>306</v>
       </c>
       <c r="Z99" s="4"/>
@@ -8577,7 +8582,7 @@
       </c>
     </row>
     <row r="100" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A100" s="13" t="s">
+      <c r="A100" s="12" t="s">
         <v>312</v>
       </c>
       <c r="B100" t="str">
@@ -8700,7 +8705,7 @@
       </c>
     </row>
     <row r="101" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A101" s="13" t="s">
+      <c r="A101" s="12" t="s">
         <v>312</v>
       </c>
       <c r="AE101" s="4" t="s">
@@ -8708,7 +8713,7 @@
       </c>
     </row>
     <row r="102" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A102" s="13" t="s">
+      <c r="A102" s="12" t="s">
         <v>315</v>
       </c>
       <c r="B102" t="str">
@@ -8831,7 +8836,7 @@
       </c>
     </row>
     <row r="103" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A103" s="13" t="s">
+      <c r="A103" s="12" t="s">
         <v>315</v>
       </c>
       <c r="AE103" s="4" t="s">
@@ -8839,7 +8844,7 @@
       </c>
     </row>
     <row r="104" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A104" s="13" t="s">
+      <c r="A104" s="12" t="s">
         <v>309</v>
       </c>
       <c r="B104" t="str">
@@ -8965,12 +8970,12 @@
       </c>
     </row>
     <row r="105" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A105" s="13" t="s">
+      <c r="A105" s="12" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="106" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A106" s="13" t="s">
+      <c r="A106" s="12" t="s">
         <v>141</v>
       </c>
       <c r="B106" t="str">
@@ -9120,7 +9125,7 @@
       </c>
     </row>
     <row r="107" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A107" s="13" t="s">
+      <c r="A107" s="12" t="s">
         <v>141</v>
       </c>
       <c r="G107" t="s">
@@ -9146,7 +9151,7 @@
       </c>
     </row>
     <row r="108" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A108" s="13" t="s">
+      <c r="A108" s="12" t="s">
         <v>141</v>
       </c>
       <c r="G108" t="s">
@@ -9161,7 +9166,7 @@
       <c r="AE108" s="4"/>
     </row>
     <row r="109" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A109" s="13" t="s">
+      <c r="A109" s="12" t="s">
         <v>176</v>
       </c>
       <c r="B109" t="str">
@@ -9239,7 +9244,7 @@
       </c>
     </row>
     <row r="110" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A110" s="13" t="s">
+      <c r="A110" s="12" t="s">
         <v>176</v>
       </c>
       <c r="AE110" s="4" t="s">
@@ -9247,13 +9252,13 @@
       </c>
     </row>
     <row r="111" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A111" s="13" t="s">
+      <c r="A111" s="12" t="s">
         <v>176</v>
       </c>
       <c r="AE111" s="4"/>
     </row>
     <row r="112" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A112" s="13" t="s">
+      <c r="A112" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B112" t="str">
@@ -9403,7 +9408,7 @@
       </c>
     </row>
     <row r="113" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A113" s="13" t="s">
+      <c r="A113" s="12" t="s">
         <v>193</v>
       </c>
       <c r="G113" t="s">
@@ -9429,7 +9434,7 @@
       </c>
     </row>
     <row r="114" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A114" s="13" t="s">
+      <c r="A114" s="12" t="s">
         <v>193</v>
       </c>
       <c r="G114" t="s">
@@ -9447,7 +9452,7 @@
       <c r="AE114" s="4"/>
     </row>
     <row r="115" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A115" s="13" t="s">
+      <c r="A115" s="12" t="s">
         <v>194</v>
       </c>
       <c r="B115" t="str">
@@ -9597,7 +9602,7 @@
       </c>
     </row>
     <row r="116" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A116" s="13" t="s">
+      <c r="A116" s="12" t="s">
         <v>194</v>
       </c>
       <c r="G116" t="s">
@@ -9623,7 +9628,7 @@
       </c>
     </row>
     <row r="117" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A117" s="13" t="s">
+      <c r="A117" s="12" t="s">
         <v>194</v>
       </c>
       <c r="G117" t="s">
@@ -9638,7 +9643,7 @@
       <c r="AE117" s="4"/>
     </row>
     <row r="118" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A118" s="13" t="s">
+      <c r="A118" s="12" t="s">
         <v>177</v>
       </c>
       <c r="B118" t="str">
@@ -9788,7 +9793,7 @@
       </c>
     </row>
     <row r="119" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A119" s="13" t="s">
+      <c r="A119" s="12" t="s">
         <v>177</v>
       </c>
       <c r="G119" t="s">
@@ -9814,7 +9819,7 @@
       </c>
     </row>
     <row r="120" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A120" s="13" t="s">
+      <c r="A120" s="12" t="s">
         <v>177</v>
       </c>
       <c r="G120" s="5" t="s">
@@ -9834,7 +9839,7 @@
       </c>
     </row>
     <row r="121" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A121" s="13" t="s">
+      <c r="A121" s="12" t="s">
         <v>188</v>
       </c>
       <c r="B121" t="str">
@@ -9912,7 +9917,7 @@
       </c>
     </row>
     <row r="122" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A122" s="13" t="s">
+      <c r="A122" s="12" t="s">
         <v>188</v>
       </c>
       <c r="AE122" s="4" t="s">
@@ -9920,12 +9925,12 @@
       </c>
     </row>
     <row r="123" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A123" s="13" t="s">
+      <c r="A123" s="12" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="124" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A124" s="13" t="s">
+      <c r="A124" s="12" t="s">
         <v>192</v>
       </c>
       <c r="B124" t="str">
@@ -10075,7 +10080,7 @@
       </c>
     </row>
     <row r="125" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A125" s="13" t="s">
+      <c r="A125" s="12" t="s">
         <v>192</v>
       </c>
       <c r="G125" t="s">
@@ -10101,7 +10106,7 @@
       </c>
     </row>
     <row r="126" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A126" s="13" t="s">
+      <c r="A126" s="12" t="s">
         <v>192</v>
       </c>
       <c r="G126" s="5" t="s">
@@ -10121,7 +10126,7 @@
       </c>
     </row>
     <row r="127" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A127" s="13" t="s">
+      <c r="A127" s="12" t="s">
         <v>198</v>
       </c>
       <c r="B127" t="str">
@@ -10271,7 +10276,7 @@
       </c>
     </row>
     <row r="128" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A128" s="13" t="s">
+      <c r="A128" s="12" t="s">
         <v>198</v>
       </c>
       <c r="G128" t="s">
@@ -10297,7 +10302,7 @@
       </c>
     </row>
     <row r="129" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A129" s="13" t="s">
+      <c r="A129" s="12" t="s">
         <v>198</v>
       </c>
       <c r="G129" s="5" t="s">
@@ -10317,7 +10322,7 @@
       </c>
     </row>
     <row r="130" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A130" s="13" t="s">
+      <c r="A130" s="12" t="s">
         <v>354</v>
       </c>
       <c r="B130" t="str">
@@ -10467,7 +10472,7 @@
       </c>
     </row>
     <row r="131" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A131" s="13" t="s">
+      <c r="A131" s="12" t="s">
         <v>354</v>
       </c>
       <c r="G131" t="s">
@@ -10493,7 +10498,7 @@
       </c>
     </row>
     <row r="132" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A132" s="13" t="s">
+      <c r="A132" s="12" t="s">
         <v>354</v>
       </c>
       <c r="G132" s="5" t="s">
@@ -10513,7 +10518,7 @@
       </c>
     </row>
     <row r="133" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A133" s="13" t="s">
+      <c r="A133" s="12" t="s">
         <v>199</v>
       </c>
       <c r="B133" t="str">
@@ -10663,7 +10668,7 @@
       </c>
     </row>
     <row r="134" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A134" s="13" t="s">
+      <c r="A134" s="12" t="s">
         <v>199</v>
       </c>
       <c r="G134" s="5" t="s">
@@ -10690,7 +10695,7 @@
       </c>
     </row>
     <row r="135" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A135" s="13" t="s">
+      <c r="A135" s="12" t="s">
         <v>215</v>
       </c>
       <c r="B135" t="str">
@@ -10840,7 +10845,7 @@
       </c>
     </row>
     <row r="136" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A136" s="13" t="s">
+      <c r="A136" s="12" t="s">
         <v>215</v>
       </c>
       <c r="G136" t="s">
@@ -10872,7 +10877,7 @@
       </c>
     </row>
     <row r="137" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A137" s="13" t="s">
+      <c r="A137" s="12" t="s">
         <v>230</v>
       </c>
       <c r="B137" t="str">
@@ -10950,7 +10955,7 @@
       </c>
     </row>
     <row r="138" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A138" s="13" t="s">
+      <c r="A138" s="12" t="s">
         <v>230</v>
       </c>
       <c r="AE138" t="s">
@@ -10958,7 +10963,7 @@
       </c>
     </row>
     <row r="139" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A139" s="13" t="s">
+      <c r="A139" s="12" t="s">
         <v>257</v>
       </c>
       <c r="B139" t="str">
@@ -11108,7 +11113,7 @@
       </c>
     </row>
     <row r="140" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A140" s="13" t="s">
+      <c r="A140" s="12" t="s">
         <v>257</v>
       </c>
       <c r="G140" t="s">
@@ -11140,7 +11145,7 @@
       </c>
     </row>
     <row r="141" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A141" s="13" t="s">
+      <c r="A141" s="12" t="s">
         <v>258</v>
       </c>
       <c r="B141" t="str">
@@ -11281,7 +11286,7 @@
       </c>
     </row>
     <row r="142" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A142" s="13" t="s">
+      <c r="A142" s="12" t="s">
         <v>258</v>
       </c>
       <c r="G142" t="s">
@@ -11304,7 +11309,7 @@
       </c>
     </row>
     <row r="143" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A143" s="13" t="s">
+      <c r="A143" s="12" t="s">
         <v>299</v>
       </c>
       <c r="B143" t="str">
@@ -11445,7 +11450,7 @@
       </c>
     </row>
     <row r="144" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A144" s="13" t="s">
+      <c r="A144" s="12" t="s">
         <v>299</v>
       </c>
       <c r="G144" t="s">
@@ -11468,7 +11473,7 @@
       </c>
     </row>
     <row r="145" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A145" s="13" t="s">
+      <c r="A145" s="12" t="s">
         <v>184</v>
       </c>
       <c r="B145" t="str">
@@ -11618,7 +11623,7 @@
       </c>
     </row>
     <row r="146" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A146" s="13" t="s">
+      <c r="A146" s="12" t="s">
         <v>184</v>
       </c>
       <c r="G146" t="s">
@@ -11642,7 +11647,7 @@
       <c r="AF146" s="4"/>
     </row>
     <row r="147" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A147" s="13" t="s">
+      <c r="A147" s="12" t="s">
         <v>184</v>
       </c>
       <c r="G147" s="5" t="s">
@@ -11663,7 +11668,7 @@
       <c r="AF147" s="4"/>
     </row>
     <row r="148" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A148" s="13" t="s">
+      <c r="A148" s="12" t="s">
         <v>189</v>
       </c>
       <c r="B148" t="str">
@@ -11742,7 +11747,7 @@
       </c>
     </row>
     <row r="149" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A149" s="13" t="s">
+      <c r="A149" s="12" t="s">
         <v>189</v>
       </c>
       <c r="L149" s="4"/>
@@ -11752,7 +11757,7 @@
       <c r="AF149" s="4"/>
     </row>
     <row r="150" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A150" s="13" t="s">
+      <c r="A150" s="12" t="s">
         <v>191</v>
       </c>
       <c r="B150" t="str">
@@ -11902,7 +11907,7 @@
       </c>
     </row>
     <row r="151" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A151" s="13" t="s">
+      <c r="A151" s="12" t="s">
         <v>191</v>
       </c>
       <c r="G151" t="s">
@@ -11926,7 +11931,7 @@
       <c r="AF151" s="4"/>
     </row>
     <row r="152" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A152" s="13" t="s">
+      <c r="A152" s="12" t="s">
         <v>191</v>
       </c>
       <c r="G152" s="5" t="s">
@@ -11947,7 +11952,7 @@
       <c r="AF152" s="4"/>
     </row>
     <row r="153" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A153" s="13" t="s">
+      <c r="A153" s="12" t="s">
         <v>197</v>
       </c>
       <c r="B153" t="str">
@@ -12097,7 +12102,7 @@
       </c>
     </row>
     <row r="154" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A154" s="13" t="s">
+      <c r="A154" s="12" t="s">
         <v>197</v>
       </c>
       <c r="G154" t="s">
@@ -12121,7 +12126,7 @@
       <c r="AF154" s="4"/>
     </row>
     <row r="155" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A155" s="13" t="s">
+      <c r="A155" s="12" t="s">
         <v>197</v>
       </c>
       <c r="G155" s="5" t="s">
@@ -12142,7 +12147,7 @@
       <c r="AF155" s="4"/>
     </row>
     <row r="156" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A156" s="13" t="s">
+      <c r="A156" s="12" t="s">
         <v>202</v>
       </c>
       <c r="B156" t="str">
@@ -12292,7 +12297,7 @@
       </c>
     </row>
     <row r="157" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A157" s="13" t="s">
+      <c r="A157" s="12" t="s">
         <v>202</v>
       </c>
       <c r="G157" s="5" t="s">
@@ -12320,7 +12325,7 @@
       <c r="AF157" s="4"/>
     </row>
     <row r="158" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A158" s="13" t="s">
+      <c r="A158" s="12" t="s">
         <v>333</v>
       </c>
       <c r="B158" t="str">
@@ -12437,7 +12442,7 @@
       </c>
     </row>
     <row r="159" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A159" s="13" t="s">
+      <c r="A159" s="12" t="s">
         <v>333</v>
       </c>
       <c r="AE159" t="s">
@@ -12446,7 +12451,7 @@
       <c r="AF159" s="4"/>
     </row>
     <row r="160" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A160" s="13" t="s">
+      <c r="A160" s="12" t="s">
         <v>327</v>
       </c>
       <c r="B160" t="str">
@@ -12572,7 +12577,7 @@
       </c>
     </row>
     <row r="161" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A161" s="13" t="s">
+      <c r="A161" s="12" t="s">
         <v>327</v>
       </c>
       <c r="AE161" t="s">
@@ -12581,7 +12586,7 @@
       <c r="AF161" s="4"/>
     </row>
     <row r="162" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A162" s="13" t="s">
+      <c r="A162" s="12" t="s">
         <v>330</v>
       </c>
       <c r="B162" t="str">
@@ -12707,7 +12712,7 @@
       </c>
     </row>
     <row r="163" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A163" s="13" t="s">
+      <c r="A163" s="12" t="s">
         <v>330</v>
       </c>
       <c r="Z163" s="4"/>
@@ -12717,7 +12722,7 @@
       <c r="AF163" s="4"/>
     </row>
     <row r="164" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A164" s="13" t="s">
+      <c r="A164" s="12" t="s">
         <v>339</v>
       </c>
       <c r="B164" t="str">
@@ -12840,7 +12845,7 @@
       </c>
     </row>
     <row r="165" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A165" s="13" t="s">
+      <c r="A165" s="12" t="s">
         <v>339</v>
       </c>
       <c r="AE165" t="s">
@@ -12849,7 +12854,7 @@
       <c r="AF165" s="4"/>
     </row>
     <row r="166" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A166" s="13" t="s">
+      <c r="A166" s="12" t="s">
         <v>342</v>
       </c>
       <c r="B166" t="str">
@@ -12967,7 +12972,7 @@
       </c>
     </row>
     <row r="167" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A167" s="13" t="s">
+      <c r="A167" s="12" t="s">
         <v>342</v>
       </c>
       <c r="AE167" t="s">
@@ -12976,7 +12981,7 @@
       <c r="AF167" s="4"/>
     </row>
     <row r="168" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A168" s="13" t="s">
+      <c r="A168" s="12" t="s">
         <v>336</v>
       </c>
       <c r="B168" t="str">
@@ -13099,7 +13104,7 @@
       </c>
     </row>
     <row r="169" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A169" s="13" t="s">
+      <c r="A169" s="12" t="s">
         <v>336</v>
       </c>
       <c r="AE169" t="s">
@@ -13108,7 +13113,7 @@
       <c r="AF169" s="4"/>
     </row>
     <row r="170" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A170" s="13" t="s">
+      <c r="A170" s="12" t="s">
         <v>246</v>
       </c>
       <c r="B170" t="str">
@@ -13258,7 +13263,7 @@
       </c>
     </row>
     <row r="171" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A171" s="13" t="s">
+      <c r="A171" s="12" t="s">
         <v>246</v>
       </c>
       <c r="G171" t="s">
@@ -13284,7 +13289,7 @@
       </c>
     </row>
     <row r="172" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A172" s="13" t="s">
+      <c r="A172" s="12" t="s">
         <v>253</v>
       </c>
       <c r="B172" t="str">
@@ -13362,7 +13367,7 @@
       </c>
     </row>
     <row r="173" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A173" s="13" t="s">
+      <c r="A173" s="12" t="s">
         <v>253</v>
       </c>
       <c r="AE173" t="s">
@@ -13371,7 +13376,7 @@
       <c r="AF173" s="4"/>
     </row>
     <row r="174" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A174" s="13" t="s">
+      <c r="A174" s="12" t="s">
         <v>363</v>
       </c>
       <c r="B174" t="str">
@@ -13521,7 +13526,7 @@
       </c>
     </row>
     <row r="175" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A175" s="13" t="s">
+      <c r="A175" s="12" t="s">
         <v>363</v>
       </c>
       <c r="G175" t="s">
@@ -13547,7 +13552,7 @@
       </c>
     </row>
     <row r="176" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A176" s="13" t="s">
+      <c r="A176" s="12" t="s">
         <v>375</v>
       </c>
       <c r="B176" t="str">
@@ -13694,7 +13699,7 @@
       </c>
     </row>
     <row r="177" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A177" s="13" t="s">
+      <c r="A177" s="12" t="s">
         <v>375</v>
       </c>
       <c r="G177" t="s">
@@ -13720,7 +13725,7 @@
       </c>
     </row>
     <row r="178" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A178" s="13" t="s">
+      <c r="A178" s="12" t="s">
         <v>223</v>
       </c>
       <c r="B178" t="str">
@@ -13798,7 +13803,7 @@
       </c>
     </row>
     <row r="179" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A179" s="13" t="s">
+      <c r="A179" s="12" t="s">
         <v>223</v>
       </c>
       <c r="AE179" t="s">
@@ -13806,7 +13811,7 @@
       </c>
     </row>
     <row r="180" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A180" s="13" t="s">
+      <c r="A180" s="12" t="s">
         <v>231</v>
       </c>
       <c r="B180" t="str">
@@ -13953,7 +13958,7 @@
       </c>
     </row>
     <row r="181" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A181" s="13" t="s">
+      <c r="A181" s="12" t="s">
         <v>231</v>
       </c>
       <c r="G181" t="s">
@@ -13979,7 +13984,7 @@
       </c>
     </row>
     <row r="182" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A182" s="13" t="s">
+      <c r="A182" s="12" t="s">
         <v>364</v>
       </c>
       <c r="B182" t="str">
@@ -14126,7 +14131,7 @@
       </c>
     </row>
     <row r="183" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A183" s="13" t="s">
+      <c r="A183" s="12" t="s">
         <v>364</v>
       </c>
       <c r="G183" t="s">
@@ -14152,7 +14157,7 @@
       </c>
     </row>
     <row r="184" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A184" s="13" t="s">
+      <c r="A184" s="12" t="s">
         <v>371</v>
       </c>
       <c r="B184" t="str">
@@ -14296,7 +14301,7 @@
       </c>
     </row>
     <row r="185" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A185" s="13" t="s">
+      <c r="A185" s="12" t="s">
         <v>371</v>
       </c>
       <c r="G185" t="s">
@@ -14319,7 +14324,7 @@
       </c>
     </row>
     <row r="186" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A186" s="13" t="s">
+      <c r="A186" s="12" t="s">
         <v>371</v>
       </c>
       <c r="G186" s="5" t="s">
@@ -14339,7 +14344,7 @@
       </c>
     </row>
     <row r="187" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A187" s="13" t="s">
+      <c r="A187" s="12" t="s">
         <v>365</v>
       </c>
       <c r="B187" t="str">
@@ -14486,7 +14491,7 @@
       </c>
     </row>
     <row r="188" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A188" s="13" t="s">
+      <c r="A188" s="12" t="s">
         <v>365</v>
       </c>
       <c r="G188" t="s">
@@ -14512,7 +14517,7 @@
       </c>
     </row>
     <row r="189" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A189" s="13" t="s">
+      <c r="A189" s="12" t="s">
         <v>368</v>
       </c>
       <c r="B189" t="str">
@@ -14659,7 +14664,7 @@
       </c>
     </row>
     <row r="190" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A190" s="13" t="s">
+      <c r="A190" s="12" t="s">
         <v>368</v>
       </c>
       <c r="G190" t="s">
@@ -14685,7 +14690,7 @@
       </c>
     </row>
     <row r="191" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A191" s="13" t="s">
+      <c r="A191" s="12" t="s">
         <v>355</v>
       </c>
       <c r="B191" t="str">
@@ -14835,7 +14840,7 @@
       </c>
     </row>
     <row r="192" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A192" s="13" t="s">
+      <c r="A192" s="12" t="s">
         <v>355</v>
       </c>
       <c r="D192" s="4" t="s">
@@ -14867,7 +14872,7 @@
       </c>
     </row>
     <row r="193" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A193" s="13" t="s">
+      <c r="A193" s="12" t="s">
         <v>355</v>
       </c>
       <c r="G193" t="s">
@@ -14894,7 +14899,7 @@
       <c r="AE193" s="4"/>
     </row>
     <row r="194" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A194" s="13" t="s">
+      <c r="A194" s="12" t="s">
         <v>362</v>
       </c>
       <c r="B194" t="str">
@@ -14978,7 +14983,7 @@
       </c>
     </row>
     <row r="195" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A195" s="13" t="s">
+      <c r="A195" s="12" t="s">
         <v>362</v>
       </c>
       <c r="D195" s="4"/>
@@ -14988,14 +14993,14 @@
       </c>
     </row>
     <row r="196" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A196" s="13" t="s">
+      <c r="A196" s="12" t="s">
         <v>362</v>
       </c>
       <c r="L196" s="4"/>
       <c r="AE196" s="4"/>
     </row>
     <row r="197" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A197" s="13" t="s">
+      <c r="A197" s="12" t="s">
         <v>374</v>
       </c>
       <c r="B197" t="str">
@@ -15145,7 +15150,7 @@
       </c>
     </row>
     <row r="198" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A198" s="13" t="s">
+      <c r="A198" s="12" t="s">
         <v>374</v>
       </c>
       <c r="D198" s="4" t="s">
@@ -15177,7 +15182,7 @@
       </c>
     </row>
     <row r="199" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A199" s="13" t="s">
+      <c r="A199" s="12" t="s">
         <v>374</v>
       </c>
       <c r="G199" t="s">
@@ -15204,7 +15209,7 @@
       <c r="AE199" s="4"/>
     </row>
     <row r="200" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A200" s="13" t="s">
+      <c r="A200" s="12" t="s">
         <v>431</v>
       </c>
       <c r="B200" t="str">
@@ -15350,7 +15355,7 @@
       </c>
     </row>
     <row r="201" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A201" s="13" t="s">
+      <c r="A201" s="12" t="s">
         <v>431</v>
       </c>
       <c r="D201" s="4" t="s">
@@ -15382,7 +15387,7 @@
       </c>
     </row>
     <row r="202" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A202" s="13" t="s">
+      <c r="A202" s="12" t="s">
         <v>431</v>
       </c>
       <c r="G202" t="s">
@@ -15410,7 +15415,7 @@
       <c r="AE202" s="4"/>
     </row>
     <row r="203" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A203" s="13" t="s">
+      <c r="A203" s="12" t="s">
         <v>428</v>
       </c>
       <c r="B203" t="str">
@@ -15553,7 +15558,7 @@
       </c>
     </row>
     <row r="204" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A204" s="13" t="s">
+      <c r="A204" s="12" t="s">
         <v>428</v>
       </c>
       <c r="G204" t="s">
@@ -15585,7 +15590,7 @@
       </c>
     </row>
     <row r="205" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A205" s="13" t="s">
+      <c r="A205" s="12" t="s">
         <v>320</v>
       </c>
       <c r="B205" t="str">
@@ -15732,7 +15737,7 @@
       </c>
     </row>
     <row r="206" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A206" s="13" t="s">
+      <c r="A206" s="12" t="s">
         <v>320</v>
       </c>
       <c r="G206" t="s">
@@ -15758,7 +15763,7 @@
       </c>
     </row>
     <row r="207" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A207" s="13" t="s">
+      <c r="A207" s="12" t="s">
         <v>320</v>
       </c>
       <c r="G207" t="s">
@@ -15781,7 +15786,7 @@
       </c>
     </row>
     <row r="208" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A208" s="13" t="s">
+      <c r="A208" s="12" t="s">
         <v>326</v>
       </c>
       <c r="B208" t="str">
@@ -15859,7 +15864,7 @@
       </c>
     </row>
     <row r="209" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A209" s="13" t="s">
+      <c r="A209" s="12" t="s">
         <v>326</v>
       </c>
       <c r="AE209" s="4" t="s">
@@ -15867,7 +15872,7 @@
       </c>
     </row>
     <row r="210" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A210" s="13" t="s">
+      <c r="A210" s="12" t="s">
         <v>326</v>
       </c>
       <c r="AE210" s="4" t="s">
@@ -15875,7 +15880,7 @@
       </c>
     </row>
     <row r="211" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A211" s="13" t="s">
+      <c r="A211" s="12" t="s">
         <v>427</v>
       </c>
       <c r="B211" t="str">
@@ -16022,7 +16027,7 @@
       </c>
     </row>
     <row r="212" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A212" s="13" t="s">
+      <c r="A212" s="12" t="s">
         <v>427</v>
       </c>
       <c r="G212" t="s">
@@ -16048,7 +16053,7 @@
       </c>
     </row>
     <row r="213" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A213" s="13" t="s">
+      <c r="A213" s="12" t="s">
         <v>427</v>
       </c>
       <c r="G213" t="s">
@@ -16071,7 +16076,7 @@
       </c>
     </row>
     <row r="214" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A214" s="13" t="s">
+      <c r="A214" s="12" t="s">
         <v>261</v>
       </c>
       <c r="B214" t="str">
@@ -16218,7 +16223,7 @@
       </c>
     </row>
     <row r="215" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A215" s="13" t="s">
+      <c r="A215" s="12" t="s">
         <v>261</v>
       </c>
       <c r="D215" s="4"/>
@@ -16230,7 +16235,7 @@
       </c>
     </row>
     <row r="216" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A216" s="13" t="s">
+      <c r="A216" s="12" t="s">
         <v>273</v>
       </c>
       <c r="B216" t="str">
@@ -16308,7 +16313,7 @@
       </c>
     </row>
     <row r="217" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A217" s="13" t="s">
+      <c r="A217" s="12" t="s">
         <v>273</v>
       </c>
       <c r="AE217" s="4" t="s">
@@ -16316,7 +16321,7 @@
       </c>
     </row>
     <row r="218" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A218" s="13" t="s">
+      <c r="A218" s="12" t="s">
         <v>297</v>
       </c>
       <c r="B218" t="str">
@@ -16463,7 +16468,7 @@
       </c>
     </row>
     <row r="219" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A219" s="13" t="s">
+      <c r="A219" s="12" t="s">
         <v>297</v>
       </c>
       <c r="D219" s="4"/>
@@ -16475,7 +16480,7 @@
       </c>
     </row>
     <row r="220" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A220" s="13" t="s">
+      <c r="A220" s="12" t="s">
         <v>268</v>
       </c>
       <c r="B220" t="str">
@@ -16622,7 +16627,7 @@
       </c>
     </row>
     <row r="221" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A221" s="13" t="s">
+      <c r="A221" s="12" t="s">
         <v>268</v>
       </c>
       <c r="D221" s="4"/>
@@ -16649,7 +16654,7 @@
       </c>
     </row>
     <row r="222" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A222" s="13" t="s">
+      <c r="A222" s="12" t="s">
         <v>272</v>
       </c>
       <c r="B222" t="str">
@@ -16727,7 +16732,7 @@
       </c>
     </row>
     <row r="223" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A223" s="13" t="s">
+      <c r="A223" s="12" t="s">
         <v>272</v>
       </c>
       <c r="AE223" s="4" t="s">
@@ -16735,7 +16740,7 @@
       </c>
     </row>
     <row r="224" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A224" s="13" t="s">
+      <c r="A224" s="12" t="s">
         <v>298</v>
       </c>
       <c r="B224" t="e">
@@ -16882,7 +16887,7 @@
       </c>
     </row>
     <row r="225" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A225" s="13" t="s">
+      <c r="A225" s="12" t="s">
         <v>298</v>
       </c>
       <c r="D225" s="4"/>
@@ -16903,7 +16908,7 @@
       </c>
     </row>
     <row r="226" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A226" s="13" t="s">
+      <c r="A226" s="12" t="s">
         <v>411</v>
       </c>
       <c r="B226" t="str">
@@ -17050,7 +17055,7 @@
       </c>
     </row>
     <row r="227" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A227" s="13" t="s">
+      <c r="A227" s="12" t="s">
         <v>411</v>
       </c>
       <c r="D227" s="4"/>
@@ -17077,7 +17082,7 @@
       </c>
     </row>
     <row r="228" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A228" s="13" t="s">
+      <c r="A228" s="12" t="s">
         <v>415</v>
       </c>
       <c r="B228" t="str">
@@ -17224,7 +17229,7 @@
       </c>
     </row>
     <row r="229" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A229" s="13" t="s">
+      <c r="A229" s="12" t="s">
         <v>415</v>
       </c>
       <c r="G229" t="s">
@@ -17250,7 +17255,7 @@
       </c>
     </row>
     <row r="230" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A230" s="13" t="s">
+      <c r="A230" s="12" t="s">
         <v>424</v>
       </c>
       <c r="B230" t="str">
@@ -17388,7 +17393,7 @@
       </c>
     </row>
     <row r="231" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A231" s="13" t="s">
+      <c r="A231" s="12" t="s">
         <v>424</v>
       </c>
       <c r="D231" s="4"/>
@@ -17402,7 +17407,7 @@
       </c>
     </row>
     <row r="232" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A232" s="13" t="s">
+      <c r="A232" s="12" t="s">
         <v>424</v>
       </c>
       <c r="D232" s="4"/>
@@ -17420,7 +17425,7 @@
       <c r="AE232" s="4"/>
     </row>
     <row r="233" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A233" s="13" t="s">
+      <c r="A233" s="12" t="s">
         <v>424</v>
       </c>
       <c r="D233" s="4"/>
@@ -17432,7 +17437,7 @@
       <c r="AE233" s="4"/>
     </row>
     <row r="234" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A234" s="13" t="s">
+      <c r="A234" s="12" t="s">
         <v>421</v>
       </c>
       <c r="B234" t="str">
@@ -17579,7 +17584,7 @@
       </c>
     </row>
     <row r="235" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A235" s="13" t="s">
+      <c r="A235" s="12" t="s">
         <v>421</v>
       </c>
       <c r="Y235" t="s">
@@ -17590,7 +17595,7 @@
       </c>
     </row>
     <row r="236" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A236" s="13" t="s">
+      <c r="A236" s="12" t="s">
         <v>412</v>
       </c>
       <c r="B236" t="str">
@@ -17737,7 +17742,7 @@
       </c>
     </row>
     <row r="237" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A237" s="13" t="s">
+      <c r="A237" s="12" t="s">
         <v>412</v>
       </c>
       <c r="D237" s="4"/>
@@ -17764,7 +17769,7 @@
       </c>
     </row>
     <row r="238" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A238" s="13" t="s">
+      <c r="A238" s="12" t="s">
         <v>418</v>
       </c>
       <c r="B238" t="str">
@@ -17911,7 +17916,7 @@
       </c>
     </row>
     <row r="239" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A239" s="13" t="s">
+      <c r="A239" s="12" t="s">
         <v>418</v>
       </c>
       <c r="G239" t="s">
@@ -17937,7 +17942,7 @@
       </c>
     </row>
     <row r="240" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A240" s="13" t="s">
+      <c r="A240" s="12" t="s">
         <v>408</v>
       </c>
       <c r="B240" t="str">
@@ -18084,7 +18089,7 @@
       </c>
     </row>
     <row r="241" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A241" s="13" t="s">
+      <c r="A241" s="12" t="s">
         <v>408</v>
       </c>
       <c r="Y241" t="s">
@@ -18095,7 +18100,7 @@
       </c>
     </row>
     <row r="242" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A242" s="13" t="s">
+      <c r="A242" s="12" t="s">
         <v>408</v>
       </c>
       <c r="Y242" t="s">
@@ -18110,7 +18115,7 @@
       <c r="AE242" s="4"/>
     </row>
     <row r="243" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A243" s="13" t="s">
+      <c r="A243" s="12" t="s">
         <v>408</v>
       </c>
       <c r="Y243" t="s">
@@ -18119,7 +18124,7 @@
       <c r="AE243" s="4"/>
     </row>
     <row r="244" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A244" s="13" t="s">
+      <c r="A244" s="12" t="s">
         <v>239</v>
       </c>
       <c r="B244" t="str">
@@ -18197,7 +18202,7 @@
       </c>
     </row>
     <row r="245" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A245" s="13" t="s">
+      <c r="A245" s="12" t="s">
         <v>239</v>
       </c>
       <c r="AE245" s="4" t="s">
@@ -18205,7 +18210,7 @@
       </c>
     </row>
     <row r="246" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A246" s="13" t="s">
+      <c r="A246" s="12" t="s">
         <v>245</v>
       </c>
       <c r="B246" t="str">
@@ -18352,7 +18357,7 @@
       </c>
     </row>
     <row r="247" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A247" s="13" t="s">
+      <c r="A247" s="12" t="s">
         <v>245</v>
       </c>
       <c r="G247" t="s">
@@ -18378,7 +18383,7 @@
       </c>
     </row>
     <row r="248" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A248" s="13" t="s">
+      <c r="A248" s="12" t="s">
         <v>399</v>
       </c>
       <c r="B248" t="str">
@@ -18525,7 +18530,7 @@
       </c>
     </row>
     <row r="249" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A249" s="13" t="s">
+      <c r="A249" s="12" t="s">
         <v>399</v>
       </c>
       <c r="G249" t="s">
@@ -18551,7 +18556,7 @@
       </c>
     </row>
     <row r="250" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A250" s="14" t="s">
+      <c r="A250" s="13" t="s">
         <v>107</v>
       </c>
       <c r="B250" t="str">
@@ -18698,7 +18703,7 @@
       </c>
     </row>
     <row r="251" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A251" s="14" t="s">
+      <c r="A251" s="13" t="s">
         <v>107</v>
       </c>
       <c r="Y251" t="s">
@@ -18709,7 +18714,7 @@
       </c>
     </row>
     <row r="252" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A252" s="14" t="s">
+      <c r="A252" s="13" t="s">
         <v>107</v>
       </c>
       <c r="AE252" s="4" t="s">
@@ -18717,7 +18722,7 @@
       </c>
     </row>
     <row r="253" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A253" s="14" t="s">
+      <c r="A253" s="13" t="s">
         <v>115</v>
       </c>
       <c r="B253" t="str">
@@ -18864,7 +18869,7 @@
       </c>
     </row>
     <row r="254" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A254" s="14" t="s">
+      <c r="A254" s="13" t="s">
         <v>115</v>
       </c>
       <c r="Y254" t="s">
@@ -18875,7 +18880,7 @@
       </c>
     </row>
     <row r="255" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A255" s="14" t="s">
+      <c r="A255" s="13" t="s">
         <v>115</v>
       </c>
       <c r="AE255" s="4" t="s">
@@ -18883,7 +18888,7 @@
       </c>
     </row>
     <row r="256" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A256" s="14" t="s">
+      <c r="A256" s="13" t="s">
         <v>116</v>
       </c>
       <c r="B256" t="str">
@@ -19030,7 +19035,7 @@
       </c>
     </row>
     <row r="257" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A257" s="14" t="s">
+      <c r="A257" s="13" t="s">
         <v>116</v>
       </c>
       <c r="Y257" t="s">
@@ -19041,7 +19046,7 @@
       </c>
     </row>
     <row r="258" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A258" s="14" t="s">
+      <c r="A258" s="13" t="s">
         <v>116</v>
       </c>
       <c r="AE258" s="4" t="s">
@@ -19049,7 +19054,7 @@
       </c>
     </row>
     <row r="259" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A259" s="14" t="s">
+      <c r="A259" s="13" t="s">
         <v>118</v>
       </c>
       <c r="B259" t="str">
@@ -19196,7 +19201,7 @@
       </c>
     </row>
     <row r="260" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A260" s="14" t="s">
+      <c r="A260" s="13" t="s">
         <v>118</v>
       </c>
       <c r="Y260" t="s">
@@ -19207,7 +19212,7 @@
       </c>
     </row>
     <row r="261" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A261" s="14" t="s">
+      <c r="A261" s="13" t="s">
         <v>118</v>
       </c>
       <c r="AE261" s="4" t="s">
@@ -19215,7 +19220,7 @@
       </c>
     </row>
     <row r="262" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A262" s="13" t="s">
+      <c r="A262" s="12" t="s">
         <v>400</v>
       </c>
       <c r="B262" t="str">
@@ -19293,7 +19298,7 @@
       </c>
     </row>
     <row r="263" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A263" s="13" t="s">
+      <c r="A263" s="12" t="s">
         <v>400</v>
       </c>
       <c r="AE263" s="4" t="s">
@@ -19301,7 +19306,7 @@
       </c>
     </row>
     <row r="264" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A264" s="13" t="s">
+      <c r="A264" s="12" t="s">
         <v>400</v>
       </c>
       <c r="AE264" s="4" t="s">
@@ -19309,7 +19314,7 @@
       </c>
     </row>
     <row r="265" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A265" s="13" t="s">
+      <c r="A265" s="12" t="s">
         <v>407</v>
       </c>
       <c r="B265" t="str">
@@ -19456,7 +19461,7 @@
       </c>
     </row>
     <row r="266" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A266" s="13" t="s">
+      <c r="A266" s="12" t="s">
         <v>407</v>
       </c>
       <c r="G266" t="s">
@@ -19482,7 +19487,7 @@
       </c>
     </row>
     <row r="267" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A267" s="13" t="s">
+      <c r="A267" s="12" t="s">
         <v>407</v>
       </c>
       <c r="AE267" s="4" t="s">
@@ -19490,7 +19495,7 @@
       </c>
     </row>
     <row r="268" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A268" s="13" t="s">
+      <c r="A268" s="12" t="s">
         <v>392</v>
       </c>
       <c r="B268" t="str">
@@ -19637,7 +19642,7 @@
       </c>
     </row>
     <row r="269" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A269" s="13" t="s">
+      <c r="A269" s="12" t="s">
         <v>392</v>
       </c>
       <c r="D269" s="4"/>
@@ -19666,7 +19671,7 @@
       </c>
     </row>
     <row r="270" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A270" s="13" t="s">
+      <c r="A270" s="12" t="s">
         <v>397</v>
       </c>
       <c r="B270" t="str">
@@ -19744,7 +19749,7 @@
       </c>
     </row>
     <row r="271" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A271" s="13" t="s">
+      <c r="A271" s="12" t="s">
         <v>397</v>
       </c>
       <c r="AE271" s="4" t="s">
@@ -19752,7 +19757,7 @@
       </c>
     </row>
     <row r="272" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A272" s="13" t="s">
+      <c r="A272" s="12" t="s">
         <v>385</v>
       </c>
       <c r="B272" t="str">
@@ -19899,7 +19904,7 @@
       </c>
     </row>
     <row r="273" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A273" s="13" t="s">
+      <c r="A273" s="12" t="s">
         <v>385</v>
       </c>
       <c r="D273" s="4"/>
@@ -19928,7 +19933,7 @@
       </c>
     </row>
     <row r="274" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A274" s="13" t="s">
+      <c r="A274" s="12" t="s">
         <v>396</v>
       </c>
       <c r="B274" t="str">
@@ -20006,7 +20011,7 @@
       </c>
     </row>
     <row r="275" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A275" s="13" t="s">
+      <c r="A275" s="12" t="s">
         <v>396</v>
       </c>
       <c r="AE275" s="4" t="s">
@@ -20014,7 +20019,7 @@
       </c>
     </row>
     <row r="276" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A276" s="13" t="s">
+      <c r="A276" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B276" t="str">
@@ -20167,7 +20172,7 @@
       </c>
     </row>
     <row r="277" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A277" s="13" t="s">
+      <c r="A277" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D277" s="4" t="s">
@@ -20203,7 +20208,7 @@
       </c>
     </row>
     <row r="278" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A278" s="13" t="s">
+      <c r="A278" s="12" t="s">
         <v>90</v>
       </c>
       <c r="G278" t="s">
@@ -20229,7 +20234,7 @@
       </c>
     </row>
     <row r="279" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A279" s="13" t="s">
+      <c r="A279" s="12" t="s">
         <v>104</v>
       </c>
       <c r="B279" t="str">
@@ -20382,7 +20387,7 @@
       </c>
     </row>
     <row r="280" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A280" s="13" t="s">
+      <c r="A280" s="12" t="s">
         <v>104</v>
       </c>
       <c r="D280" s="4" t="s">
@@ -20418,7 +20423,7 @@
       </c>
     </row>
     <row r="281" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A281" s="13" t="s">
+      <c r="A281" s="12" t="s">
         <v>104</v>
       </c>
       <c r="G281" t="s">
@@ -20444,7 +20449,7 @@
       </c>
     </row>
     <row r="282" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A282" s="13" t="s">
+      <c r="A282" s="12" t="s">
         <v>378</v>
       </c>
       <c r="C282" t="s">
@@ -20587,7 +20592,7 @@
       </c>
     </row>
     <row r="283" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A283" s="13" t="s">
+      <c r="A283" s="12" t="s">
         <v>378</v>
       </c>
       <c r="G283" t="s">
@@ -20615,7 +20620,7 @@
       </c>
     </row>
     <row r="284" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A284" s="13" t="s">
+      <c r="A284" s="12" t="s">
         <v>398</v>
       </c>
       <c r="B284" t="str">
@@ -20693,7 +20698,7 @@
       </c>
     </row>
     <row r="285" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A285" s="13" t="s">
+      <c r="A285" s="12" t="s">
         <v>398</v>
       </c>
       <c r="AE285" s="4" t="s">
@@ -20701,7 +20706,7 @@
       </c>
     </row>
     <row r="286" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A286" s="13" t="s">
+      <c r="A286" s="12" t="s">
         <v>163</v>
       </c>
       <c r="B286" t="str">
@@ -20779,7 +20784,7 @@
       </c>
     </row>
     <row r="287" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A287" s="13" t="s">
+      <c r="A287" s="12" t="s">
         <v>163</v>
       </c>
       <c r="AE287" s="4" t="s">
@@ -20787,7 +20792,7 @@
       </c>
     </row>
     <row r="288" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A288" s="13" t="s">
+      <c r="A288" s="12" t="s">
         <v>160</v>
       </c>
       <c r="B288" t="str">
@@ -20940,7 +20945,7 @@
       </c>
     </row>
     <row r="289" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A289" s="13" t="s">
+      <c r="A289" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G289" t="s">
@@ -20965,7 +20970,7 @@
       </c>
     </row>
     <row r="290" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A290" s="13" t="s">
+      <c r="A290" s="12" t="s">
         <v>154</v>
       </c>
       <c r="B290" t="str">
@@ -21118,7 +21123,7 @@
       </c>
     </row>
     <row r="291" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A291" s="13" t="s">
+      <c r="A291" s="12" t="s">
         <v>154</v>
       </c>
       <c r="G291" t="s">
@@ -21143,7 +21148,7 @@
       </c>
     </row>
     <row r="292" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A292" s="13" t="s">
+      <c r="A292" s="12" t="s">
         <v>157</v>
       </c>
       <c r="B292" t="str">
@@ -21296,7 +21301,7 @@
       </c>
     </row>
     <row r="293" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A293" s="13" t="s">
+      <c r="A293" s="12" t="s">
         <v>157</v>
       </c>
       <c r="G293" t="s">
@@ -21321,7 +21326,7 @@
       </c>
     </row>
     <row r="294" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A294" s="13" t="s">
+      <c r="A294" s="12" t="s">
         <v>151</v>
       </c>
       <c r="B294" t="str">
@@ -21474,7 +21479,7 @@
       </c>
     </row>
     <row r="295" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A295" s="13" t="s">
+      <c r="A295" s="12" t="s">
         <v>151</v>
       </c>
       <c r="G295" t="s">
@@ -21499,7 +21504,7 @@
       </c>
     </row>
     <row r="296" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A296" s="13" t="s">
+      <c r="A296" s="12" t="s">
         <v>318</v>
       </c>
       <c r="B296" t="str">
@@ -21634,7 +21639,7 @@
       </c>
     </row>
     <row r="297" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A297" s="13" t="s">
+      <c r="A297" s="12" t="s">
         <v>318</v>
       </c>
       <c r="G297" t="s">
@@ -21658,7 +21663,7 @@
       <c r="AF297" s="4"/>
     </row>
     <row r="298" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A298" s="13" t="s">
+      <c r="A298" s="12" t="s">
         <v>318</v>
       </c>
       <c r="G298" s="5" t="s">
@@ -21679,7 +21684,7 @@
       <c r="AF298" s="4"/>
     </row>
     <row r="299" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A299" s="13" t="s">
+      <c r="A299" s="12" t="s">
         <v>319</v>
       </c>
       <c r="B299" t="str">
@@ -21814,7 +21819,7 @@
       </c>
     </row>
     <row r="300" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A300" s="13" t="s">
+      <c r="A300" s="12" t="s">
         <v>319</v>
       </c>
       <c r="B300" t="str">
@@ -21848,7 +21853,7 @@
       </c>
     </row>
     <row r="301" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A301" s="13" t="s">
+      <c r="A301" s="12" t="s">
         <v>319</v>
       </c>
       <c r="G301" s="5" t="s">
